--- a/Datasets/Cleaned Data Sets/Monetary_Poverty_cleaned_2012-12-2022-12.xlsx
+++ b/Datasets/Cleaned Data Sets/Monetary_Poverty_cleaned_2012-12-2022-12.xlsx
@@ -606,7 +606,7 @@
         <v>236259.7371624452</v>
       </c>
       <c r="J6">
-        <v>103931.0391847545</v>
+        <v>104075</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
         <v>236430.9115682819</v>
       </c>
       <c r="J7">
-        <v>103793.1629119616</v>
+        <v>104075</v>
       </c>
     </row>
     <row r="8">
@@ -686,7 +686,7 @@
         <v>236643.3635997222</v>
       </c>
       <c r="J8">
-        <v>103697.1951394701</v>
+        <v>104075</v>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
         <v>236884.6903172752</v>
       </c>
       <c r="J9">
-        <v>103649.0002841334</v>
+        <v>104075</v>
       </c>
     </row>
     <row r="10">
@@ -766,7 +766,7 @@
         <v>237172.3420700073</v>
       </c>
       <c r="J10">
-        <v>103645.0236877304</v>
+        <v>104075</v>
       </c>
     </row>
     <row r="11">
@@ -806,7 +806,7 @@
         <v>237500.2864157626</v>
       </c>
       <c r="J11">
-        <v>103687.2758019382</v>
+        <v>104075</v>
       </c>
     </row>
     <row r="12">
@@ -846,7 +846,7 @@
         <v>237857.3337959001</v>
       </c>
       <c r="J12">
-        <v>103771.8501883142</v>
+        <v>104075</v>
       </c>
     </row>
     <row r="13">
@@ -886,7 +886,7 @@
         <v>238268.6492703253</v>
       </c>
       <c r="J13">
-        <v>103904.0434714179</v>
+        <v>104075</v>
       </c>
     </row>
     <row r="14">
@@ -2317,7 +2317,7 @@
         <v>0.04011264163783202</v>
       </c>
       <c r="G49">
-        <v>0.4319618536818983</v>
+        <v>0.432</v>
       </c>
       <c r="H49">
         <v>579650.244571097</v>
@@ -3354,7 +3354,7 @@
         <v>0.2753615623898265</v>
       </c>
       <c r="F75">
-        <v>0.02821801038768684</v>
+        <v>0.029</v>
       </c>
       <c r="G75">
         <v>0.4432244086593921</v>
@@ -3391,10 +3391,10 @@
         </is>
       </c>
       <c r="E76">
-        <v>0.2724616085837058</v>
+        <v>0.273</v>
       </c>
       <c r="F76">
-        <v>0.02731855227584607</v>
+        <v>0.029</v>
       </c>
       <c r="G76">
         <v>0.4435698571422316</v>
@@ -3431,10 +3431,10 @@
         </is>
       </c>
       <c r="E77">
-        <v>0.2697891973590469</v>
+        <v>0.273</v>
       </c>
       <c r="F77">
-        <v>0.02649637195371312</v>
+        <v>0.029</v>
       </c>
       <c r="G77">
         <v>0.4439886499476046</v>
@@ -3471,10 +3471,10 @@
         </is>
       </c>
       <c r="E78">
-        <v>0.2669617441615658</v>
+        <v>0.273</v>
       </c>
       <c r="F78">
-        <v>0.0256762595044689</v>
+        <v>0.029</v>
       </c>
       <c r="G78">
         <v>0.4445735603134036</v>
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E79">
-        <v>0.2645449245318739</v>
+        <v>0.273</v>
       </c>
       <c r="F79">
-        <v>0.02507271447797784</v>
+        <v>0.029</v>
       </c>
       <c r="G79">
         <v>0.4452639156706601</v>
@@ -3551,10 +3551,10 @@
         </is>
       </c>
       <c r="E80">
-        <v>0.2625785024467351</v>
+        <v>0.273</v>
       </c>
       <c r="F80">
-        <v>0.02475221475973228</v>
+        <v>0.029</v>
       </c>
       <c r="G80">
         <v>0.4461089440693343</v>
@@ -3591,10 +3591,10 @@
         </is>
       </c>
       <c r="E81">
-        <v>0.2613816358629636</v>
+        <v>0.273</v>
       </c>
       <c r="F81">
-        <v>0.02483758705743654</v>
+        <v>0.029</v>
       </c>
       <c r="G81">
         <v>0.4470571948348169</v>
@@ -3631,10 +3631,10 @@
         </is>
       </c>
       <c r="E82">
-        <v>0.2610754189603846</v>
+        <v>0.273</v>
       </c>
       <c r="F82">
-        <v>0.02544123707819598</v>
+        <v>0.029</v>
       </c>
       <c r="G82">
         <v>0.4481750890442832</v>
@@ -3671,10 +3671,10 @@
         </is>
       </c>
       <c r="E83">
-        <v>0.2619191806185021</v>
+        <v>0.273</v>
       </c>
       <c r="F83">
-        <v>0.02667723241738473</v>
+        <v>0.029</v>
       </c>
       <c r="G83">
         <v>0.4494365380990913</v>
@@ -3711,10 +3711,10 @@
         </is>
       </c>
       <c r="E84">
-        <v>0.2640250620342333</v>
+        <v>0.273</v>
       </c>
       <c r="F84">
-        <v>0.02857870573367891</v>
+        <v>0.029</v>
       </c>
       <c r="G84">
         <v>0.4507970795754414</v>
@@ -3751,7 +3751,7 @@
         </is>
       </c>
       <c r="E85">
-        <v>0.2677343405873703</v>
+        <v>0.273</v>
       </c>
       <c r="F85">
         <v>0.0313791361354232</v>
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="E102">
-        <v>0.4239838538941109</v>
+        <v>0.421</v>
       </c>
       <c r="F102">
-        <v>0.1241742257482846</v>
+        <v>0.123</v>
       </c>
       <c r="G102">
         <v>0.4897442775731141</v>
@@ -4471,10 +4471,10 @@
         </is>
       </c>
       <c r="E103">
-        <v>0.4264236553835148</v>
+        <v>0.421</v>
       </c>
       <c r="F103">
-        <v>0.1254560898928714</v>
+        <v>0.123</v>
       </c>
       <c r="G103">
         <v>0.4917019019857256</v>
@@ -4511,10 +4511,10 @@
         </is>
       </c>
       <c r="E104">
-        <v>0.4279024439134683</v>
+        <v>0.421</v>
       </c>
       <c r="F104">
-        <v>0.1262077678004435</v>
+        <v>0.123</v>
       </c>
       <c r="G104">
         <v>0.4936145447932389</v>
@@ -4551,10 +4551,10 @@
         </is>
       </c>
       <c r="E105">
-        <v>0.4284285856286474</v>
+        <v>0.421</v>
       </c>
       <c r="F105">
-        <v>0.1264543050304499</v>
+        <v>0.123</v>
       </c>
       <c r="G105">
         <v>0.4953479634338109</v>
@@ -4591,10 +4591,10 @@
         </is>
       </c>
       <c r="E106">
-        <v>0.4281455659232977</v>
+        <v>0.421</v>
       </c>
       <c r="F106">
-        <v>0.1262889647500719</v>
+        <v>0.123</v>
       </c>
       <c r="G106">
         <v>0.4970063881941783</v>
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E107">
-        <v>0.4271324807710025</v>
+        <v>0.421</v>
       </c>
       <c r="F107">
-        <v>0.1257747290581421</v>
+        <v>0.123</v>
       </c>
       <c r="G107">
         <v>0.4985183451124703</v>
@@ -4671,10 +4671,10 @@
         </is>
       </c>
       <c r="E108">
-        <v>0.425561868445006</v>
+        <v>0.421</v>
       </c>
       <c r="F108">
-        <v>0.1250192357617355</v>
+        <v>0.123</v>
       </c>
       <c r="G108">
         <v>0.499831106891307</v>
@@ -4711,10 +4711,10 @@
         </is>
       </c>
       <c r="E109">
-        <v>0.4234374307368089</v>
+        <v>0.421</v>
       </c>
       <c r="F109">
-        <v>0.1240489459929391</v>
+        <v>0.123</v>
       </c>
       <c r="G109">
         <v>0.5010208600266425</v>
@@ -4797,7 +4797,7 @@
         <v>0.121870903474988</v>
       </c>
       <c r="G111">
-        <v>0.5028222615269671</v>
+        <v>0.502</v>
       </c>
       <c r="H111">
         <v>658363.9987299023</v>
@@ -4837,7 +4837,7 @@
         <v>0.1207321452903464</v>
       </c>
       <c r="G112">
-        <v>0.5034393348867506</v>
+        <v>0.502</v>
       </c>
       <c r="H112">
         <v>670432.0491896492</v>
@@ -4877,7 +4877,7 @@
         <v>0.1197190611524493</v>
       </c>
       <c r="G113">
-        <v>0.5038095945064003</v>
+        <v>0.502</v>
       </c>
       <c r="H113">
         <v>681539.895101377</v>
@@ -4917,7 +4917,7 @@
         <v>0.1186408850808299</v>
       </c>
       <c r="G114">
-        <v>0.5040004983738653</v>
+        <v>0.502</v>
       </c>
       <c r="H114">
         <v>694015.0327010761</v>
@@ -4957,7 +4957,7 @@
         <v>0.1176670106624396</v>
       </c>
       <c r="G115">
-        <v>0.5039543401275355</v>
+        <v>0.502</v>
       </c>
       <c r="H115">
         <v>706212.8099116833</v>
@@ -4997,7 +4997,7 @@
         <v>0.1167603335305148</v>
       </c>
       <c r="G116">
-        <v>0.5036554833398075</v>
+        <v>0.502</v>
       </c>
       <c r="H116">
         <v>718890.654959661</v>
@@ -5037,7 +5037,7 @@
         <v>0.1160059794968212</v>
       </c>
       <c r="G117">
-        <v>0.503111187127938</v>
+        <v>0.502</v>
       </c>
       <c r="H117">
         <v>731177.2705508592</v>
@@ -5077,7 +5077,7 @@
         <v>0.1153814788869084</v>
       </c>
       <c r="G118">
-        <v>0.5022726058666207</v>
+        <v>0.502</v>
       </c>
       <c r="H118">
         <v>743836.0074704465</v>
@@ -5674,7 +5674,7 @@
         <v>0.2469205281314217</v>
       </c>
       <c r="F133">
-        <v>0.02997337556852959</v>
+        <v>0.03</v>
       </c>
       <c r="G133">
         <v>0.5036242999435695</v>
@@ -5714,7 +5714,7 @@
         <v>0.2448867031838973</v>
       </c>
       <c r="F134">
-        <v>0.02994078264029553</v>
+        <v>0.03</v>
       </c>
       <c r="G134">
         <v>0.5038475828031391</v>
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E143">
-        <v>0.2326774330304359</v>
+        <v>0.233</v>
       </c>
       <c r="F143">
         <v>0.03253647777286589</v>
@@ -6111,7 +6111,7 @@
         </is>
       </c>
       <c r="E144">
-        <v>0.2323144691354939</v>
+        <v>0.233</v>
       </c>
       <c r="F144">
         <v>0.03294878520691447</v>
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="E145">
-        <v>0.2322379511378994</v>
+        <v>0.233</v>
       </c>
       <c r="F145">
         <v>0.03332914361326095</v>
@@ -6191,7 +6191,7 @@
         </is>
       </c>
       <c r="E146">
-        <v>0.232464424828796</v>
+        <v>0.233</v>
       </c>
       <c r="F146">
         <v>0.03369110068617882</v>
@@ -9151,10 +9151,10 @@
         </is>
       </c>
       <c r="E220">
-        <v>0.4021132381980286</v>
+        <v>0.401</v>
       </c>
       <c r="F220">
-        <v>0.1337922015146797</v>
+        <v>0.132</v>
       </c>
       <c r="G220">
         <v>0.5615991118279106</v>
@@ -9194,7 +9194,7 @@
         <v>0.40040133370653</v>
       </c>
       <c r="F221">
-        <v>0.1337940716809815</v>
+        <v>0.132</v>
       </c>
       <c r="G221">
         <v>0.5636884572867681</v>
@@ -9234,10 +9234,10 @@
         <v>0.3967089330462614</v>
       </c>
       <c r="F222">
-        <v>0.1324358730292721</v>
+        <v>0.132</v>
       </c>
       <c r="G222">
-        <v>0.5651685721076597</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H222">
         <v>1065358.985387095</v>
@@ -9277,7 +9277,7 @@
         <v>0.1296246753013718</v>
       </c>
       <c r="G223">
-        <v>0.5663910770994699</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H223">
         <v>1100385.529375982</v>
@@ -9317,7 +9317,7 @@
         <v>0.1257919868956053</v>
       </c>
       <c r="G224">
-        <v>0.5671918144942233</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H224">
         <v>1139179.403139057</v>
@@ -9357,7 +9357,7 @@
         <v>0.1208916749660822</v>
       </c>
       <c r="G225">
-        <v>0.5676605796257417</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H225">
         <v>1183323.746040679</v>
@@ -9397,7 +9397,7 @@
         <v>0.1154403117482868</v>
       </c>
       <c r="G226">
-        <v>0.5678019847911111</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H226">
         <v>1229010.327486853</v>
@@ -9437,7 +9437,7 @@
         <v>0.1092838527421935</v>
       </c>
       <c r="G227">
-        <v>0.5676618698421945</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H227">
         <v>1278281.800687481</v>
@@ -9477,7 +9477,7 @@
         <v>0.1028082421635473</v>
       </c>
       <c r="G228">
-        <v>0.5672678386917119</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H228">
         <v>1328629.51950817</v>
@@ -9517,7 +9517,7 @@
         <v>0.09644027297255103</v>
       </c>
       <c r="G229">
-        <v>0.5666799944124175</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H229">
         <v>1377407.087334539</v>
@@ -9557,7 +9557,7 @@
         <v>0.08996479360429904</v>
       </c>
       <c r="G230">
-        <v>0.5658955602265299</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H230">
         <v>1426863.223135169</v>
@@ -9840,7 +9840,7 @@
         <v>0.5577588908547443</v>
       </c>
       <c r="H237">
-        <v>1673427.294226676</v>
+        <v>1653295</v>
       </c>
       <c r="I237">
         <v>500580.0682538193</v>
@@ -9880,7 +9880,7 @@
         <v>0.5563651937462594</v>
       </c>
       <c r="H238">
-        <v>1688519.023699217</v>
+        <v>1653295</v>
       </c>
       <c r="I238">
         <v>505520.410960359</v>
@@ -9920,7 +9920,7 @@
         <v>0.5548935823552491</v>
       </c>
       <c r="H239">
-        <v>1697283.282575762</v>
+        <v>1653295</v>
       </c>
       <c r="I239">
         <v>510972.6338454372</v>
@@ -9960,7 +9960,7 @@
         <v>0.5534007874416031</v>
       </c>
       <c r="H240">
-        <v>1698532.722185042</v>
+        <v>1653295</v>
       </c>
       <c r="I240">
         <v>516790.744284359</v>
@@ -10000,7 +10000,7 @@
         <v>0.5519462510797628</v>
       </c>
       <c r="H241">
-        <v>1692041.828163663</v>
+        <v>1653295</v>
       </c>
       <c r="I241">
         <v>522781.9190914277</v>
@@ -10040,7 +10040,7 @@
         <v>0.5504436200382656</v>
       </c>
       <c r="H242">
-        <v>1676814.789983724</v>
+        <v>1653295</v>
       </c>
       <c r="I242">
         <v>529358.3539738122</v>
@@ -10160,13 +10160,13 @@
         <v>0.4864887887959707</v>
       </c>
       <c r="H245">
-        <v>576418.9548957954</v>
+        <v>578058</v>
       </c>
       <c r="I245">
         <v>264281.7534422455</v>
       </c>
       <c r="J245">
-        <v>111115.3131248591</v>
+        <v>111305</v>
       </c>
     </row>
     <row r="246">
@@ -10200,13 +10200,13 @@
         <v>0.4862131785312857</v>
       </c>
       <c r="H246">
-        <v>575732.3596819522</v>
+        <v>578058</v>
       </c>
       <c r="I246">
         <v>264621.70067722</v>
       </c>
       <c r="J246">
-        <v>110963.8941411868</v>
+        <v>111305</v>
       </c>
     </row>
     <row r="247">
@@ -10240,13 +10240,13 @@
         <v>0.4861509469049926</v>
       </c>
       <c r="H247">
-        <v>575880.2321869</v>
+        <v>578058</v>
       </c>
       <c r="I247">
         <v>264962.6705772125</v>
       </c>
       <c r="J247">
-        <v>110860.0211861851</v>
+        <v>111305</v>
       </c>
     </row>
     <row r="248">
@@ -10280,13 +10280,13 @@
         <v>0.4862712686388541</v>
       </c>
       <c r="H248">
-        <v>576838.2069721055</v>
+        <v>578058</v>
       </c>
       <c r="I248">
         <v>265377.9859562091</v>
       </c>
       <c r="J248">
-        <v>110781.4363336878</v>
+        <v>111305</v>
       </c>
     </row>
     <row r="249">
@@ -10326,7 +10326,7 @@
         <v>265817.9928387501</v>
       </c>
       <c r="J249">
-        <v>110741.8242934136</v>
+        <v>111305</v>
       </c>
     </row>
     <row r="250">
@@ -10366,7 +10366,7 @@
         <v>266312.2975165067</v>
       </c>
       <c r="J250">
-        <v>110738.5448589563</v>
+        <v>111305</v>
       </c>
     </row>
     <row r="251">
@@ -10406,7 +10406,7 @@
         <v>266829.2702078984</v>
       </c>
       <c r="J251">
-        <v>110771.8101775046</v>
+        <v>111305</v>
       </c>
     </row>
     <row r="252">
@@ -10446,7 +10446,7 @@
         <v>267403.6482585196</v>
       </c>
       <c r="J252">
-        <v>110843.8385332406</v>
+        <v>111305</v>
       </c>
     </row>
     <row r="253">
@@ -10486,7 +10486,7 @@
         <v>268019.1347847552</v>
       </c>
       <c r="J253">
-        <v>110954.1389701233</v>
+        <v>111305</v>
       </c>
     </row>
     <row r="254">
@@ -10526,7 +10526,7 @@
         <v>268654.1713603251</v>
       </c>
       <c r="J254">
-        <v>111097.3220243266</v>
+        <v>111305</v>
       </c>
     </row>
     <row r="255">
@@ -10566,7 +10566,7 @@
         <v>269351.3662564358</v>
       </c>
       <c r="J255">
-        <v>111282.9338290766</v>
+        <v>111305</v>
       </c>
     </row>
     <row r="256">
@@ -11391,7 +11391,7 @@
         </is>
       </c>
       <c r="E276">
-        <v>0.2687844078482804</v>
+        <v>0.269</v>
       </c>
       <c r="F276">
         <v>0.05669264521855677</v>
@@ -11431,7 +11431,7 @@
         </is>
       </c>
       <c r="E277">
-        <v>0.2682704287351246</v>
+        <v>0.269</v>
       </c>
       <c r="F277">
         <v>0.05644361731589292</v>
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E278">
-        <v>0.2681041508276549</v>
+        <v>0.269</v>
       </c>
       <c r="F278">
         <v>0.05623452424774273</v>
@@ -11511,7 +11511,7 @@
         </is>
       </c>
       <c r="E279">
-        <v>0.2683334572834642</v>
+        <v>0.269</v>
       </c>
       <c r="F279">
         <v>0.05607553906478852</v>
@@ -12077,7 +12077,7 @@
         <v>0.05533970066761954</v>
       </c>
       <c r="G293">
-        <v>0.4499190938136813</v>
+        <v>0.451</v>
       </c>
       <c r="H293">
         <v>650635.1992809628</v>
@@ -12117,7 +12117,7 @@
         <v>0.0545200080497782</v>
       </c>
       <c r="G294">
-        <v>0.448949421679967</v>
+        <v>0.451</v>
       </c>
       <c r="H294">
         <v>650974.0311994761</v>
@@ -12157,7 +12157,7 @@
         <v>0.05367437447100239</v>
       </c>
       <c r="G295">
-        <v>0.4482000744051391</v>
+        <v>0.451</v>
       </c>
       <c r="H295">
         <v>651365.0856403064</v>
@@ -12197,7 +12197,7 @@
         <v>0.05265672888431189</v>
       </c>
       <c r="G296">
-        <v>0.4475446634642959</v>
+        <v>0.451</v>
       </c>
       <c r="H296">
         <v>651925.7275570782</v>
@@ -12237,7 +12237,7 @@
         <v>0.05162522239858022</v>
       </c>
       <c r="G297">
-        <v>0.4471185381412912</v>
+        <v>0.451</v>
       </c>
       <c r="H297">
         <v>652629.2555994755</v>
@@ -12277,7 +12277,7 @@
         <v>0.05054822239031849</v>
       </c>
       <c r="G298">
-        <v>0.4469294202547111</v>
+        <v>0.451</v>
       </c>
       <c r="H298">
         <v>653558.0483266676</v>
@@ -12317,7 +12317,7 @@
         <v>0.04953075870517847</v>
       </c>
       <c r="G299">
-        <v>0.4470240955916027</v>
+        <v>0.451</v>
       </c>
       <c r="H299">
         <v>654686.1427305952</v>
@@ -12357,7 +12357,7 @@
         <v>0.04854213490637742</v>
       </c>
       <c r="G300">
-        <v>0.4474450060145454</v>
+        <v>0.451</v>
       </c>
       <c r="H300">
         <v>656124.2217945302</v>
@@ -12397,7 +12397,7 @@
         <v>0.04765503846364774</v>
       </c>
       <c r="G301">
-        <v>0.4482310145313629</v>
+        <v>0.451</v>
       </c>
       <c r="H301">
         <v>657875.2059171364</v>
@@ -12437,7 +12437,7 @@
         <v>0.04692916219032561</v>
       </c>
       <c r="G302">
-        <v>0.449374254633181</v>
+        <v>0.451</v>
       </c>
       <c r="H302">
         <v>659901.9662543972</v>
@@ -12477,7 +12477,7 @@
         <v>0.04635324881041616</v>
       </c>
       <c r="G303">
-        <v>0.4509870725002409</v>
+        <v>0.451</v>
       </c>
       <c r="H303">
         <v>662375.0968518063</v>
@@ -12554,7 +12554,7 @@
         <v>0.297817620924883</v>
       </c>
       <c r="F305">
-        <v>0.04586897646850646</v>
+        <v>0.046</v>
       </c>
       <c r="G305">
         <v>0.4555589382538599</v>
@@ -12594,7 +12594,7 @@
         <v>0.2988964036699553</v>
       </c>
       <c r="F306">
-        <v>0.04594364315515789</v>
+        <v>0.046</v>
       </c>
       <c r="G306">
         <v>0.4585196424889773</v>
@@ -13114,7 +13114,7 @@
         <v>0.306930299078771</v>
       </c>
       <c r="F319">
-        <v>0.04589315319764954</v>
+        <v>0.046</v>
       </c>
       <c r="G319">
         <v>0.4854577501743915</v>
@@ -13154,7 +13154,7 @@
         <v>0.3058964698797948</v>
       </c>
       <c r="F320">
-        <v>0.0451335332539427</v>
+        <v>0.046</v>
       </c>
       <c r="G320">
         <v>0.4843397310006834</v>
@@ -13194,7 +13194,7 @@
         <v>0.3049535824083469</v>
       </c>
       <c r="F321">
-        <v>0.04456749123561352</v>
+        <v>0.046</v>
       </c>
       <c r="G321">
         <v>0.483007879539788</v>
@@ -13234,7 +13234,7 @@
         <v>0.3041736119800065</v>
       </c>
       <c r="F322">
-        <v>0.04427415793256025</v>
+        <v>0.046</v>
       </c>
       <c r="G322">
         <v>0.4815021099763382</v>
@@ -13274,7 +13274,7 @@
         <v>0.3037359459335355</v>
       </c>
       <c r="F323">
-        <v>0.04438432578220225</v>
+        <v>0.046</v>
       </c>
       <c r="G323">
         <v>0.4800427674329166</v>
@@ -13314,7 +13314,7 @@
         <v>0.303746241012845</v>
       </c>
       <c r="F324">
-        <v>0.04502220623230255</v>
+        <v>0.046</v>
       </c>
       <c r="G324">
         <v>0.4786612666886541</v>
@@ -14151,7 +14151,7 @@
         </is>
       </c>
       <c r="E345">
-        <v>0.4040404560448422</v>
+        <v>0.403</v>
       </c>
       <c r="F345">
         <v>0.1373610571631302</v>
@@ -14191,7 +14191,7 @@
         </is>
       </c>
       <c r="E346">
-        <v>0.4052907730756426</v>
+        <v>0.403</v>
       </c>
       <c r="F346">
         <v>0.1363884734323415</v>
@@ -14231,7 +14231,7 @@
         </is>
       </c>
       <c r="E347">
-        <v>0.4059605196064664</v>
+        <v>0.403</v>
       </c>
       <c r="F347">
         <v>0.1349842062540831</v>
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E348">
-        <v>0.4061492045746714</v>
+        <v>0.403</v>
       </c>
       <c r="F348">
         <v>0.1331783949258356</v>
@@ -14311,7 +14311,7 @@
         </is>
       </c>
       <c r="E349">
-        <v>0.4058820093583302</v>
+        <v>0.403</v>
       </c>
       <c r="F349">
         <v>0.131137818936107</v>
@@ -14351,7 +14351,7 @@
         </is>
       </c>
       <c r="E350">
-        <v>0.4052424642040894</v>
+        <v>0.403</v>
       </c>
       <c r="F350">
         <v>0.1290593056957389</v>
@@ -14391,7 +14391,7 @@
         </is>
       </c>
       <c r="E351">
-        <v>0.4042427919369687</v>
+        <v>0.403</v>
       </c>
       <c r="F351">
         <v>0.1269280447647377</v>
@@ -15006,7 +15006,7 @@
         <v>235301.5091677596</v>
       </c>
       <c r="J366">
-        <v>97353.48915577729</v>
+        <v>97395</v>
       </c>
     </row>
     <row r="367">
@@ -15040,13 +15040,13 @@
         <v>0.5161087849416016</v>
       </c>
       <c r="H367">
-        <v>536511.4755016884</v>
+        <v>537511</v>
       </c>
       <c r="I367">
         <v>235487.1582403595</v>
       </c>
       <c r="J367">
-        <v>97140.44460879317</v>
+        <v>97395</v>
       </c>
     </row>
     <row r="368">
@@ -15080,13 +15080,13 @@
         <v>0.5151680013122409</v>
       </c>
       <c r="H368">
-        <v>534343.8164134311</v>
+        <v>537511</v>
       </c>
       <c r="I368">
         <v>235684.5903758966</v>
       </c>
       <c r="J368">
-        <v>96987.51423335337</v>
+        <v>97395</v>
       </c>
     </row>
     <row r="369">
@@ -15120,13 +15120,13 @@
         <v>0.5140703296355722</v>
       </c>
       <c r="H369">
-        <v>532552.591103695</v>
+        <v>537511</v>
       </c>
       <c r="I369">
         <v>235936.5609926264</v>
       </c>
       <c r="J369">
-        <v>96861.43808087918</v>
+        <v>97395</v>
       </c>
     </row>
     <row r="370">
@@ -15160,13 +15160,13 @@
         <v>0.5129569703022315</v>
       </c>
       <c r="H370">
-        <v>531401.9397210451</v>
+        <v>537511</v>
       </c>
       <c r="I370">
         <v>236214.2506070982</v>
       </c>
       <c r="J370">
-        <v>96782.20817925542</v>
+        <v>97395</v>
       </c>
     </row>
     <row r="371">
@@ -15200,13 +15200,13 @@
         <v>0.5117590658676381</v>
       </c>
       <c r="H371">
-        <v>530787.1413711307</v>
+        <v>537511</v>
       </c>
       <c r="I371">
         <v>236536.6459020794</v>
       </c>
       <c r="J371">
-        <v>96744.02556114993</v>
+        <v>97395</v>
       </c>
     </row>
     <row r="372">
@@ -15240,13 +15240,13 @@
         <v>0.510559037436605</v>
       </c>
       <c r="H372">
-        <v>530721.0478794951</v>
+        <v>537511</v>
       </c>
       <c r="I372">
         <v>236883.400944837</v>
       </c>
       <c r="J372">
-        <v>96748.85876197998</v>
+        <v>97395</v>
       </c>
     </row>
     <row r="373">
@@ -15280,13 +15280,13 @@
         <v>0.5092822496247053</v>
       </c>
       <c r="H373">
-        <v>531171.2422111883</v>
+        <v>537511</v>
       </c>
       <c r="I373">
         <v>237278.1067800243</v>
       </c>
       <c r="J373">
-        <v>96796.51302124363</v>
+        <v>97395</v>
       </c>
     </row>
     <row r="374">
@@ -15320,13 +15320,13 @@
         <v>0.5079735552689396</v>
       </c>
       <c r="H374">
-        <v>532119.9573384168</v>
+        <v>537511</v>
       </c>
       <c r="I374">
         <v>237710.2833141303</v>
       </c>
       <c r="J374">
-        <v>96887.00112684527</v>
+        <v>97395</v>
       </c>
     </row>
     <row r="375">
@@ -15360,13 +15360,13 @@
         <v>0.5066818909783127</v>
       </c>
       <c r="H375">
-        <v>533485.6197215754</v>
+        <v>537511</v>
       </c>
       <c r="I375">
         <v>238164.6545161136</v>
       </c>
       <c r="J375">
-        <v>97014.8534909353</v>
+        <v>97395</v>
       </c>
     </row>
     <row r="376">
@@ -15400,13 +15400,13 @@
         <v>0.5053265123110914</v>
       </c>
       <c r="H376">
-        <v>535331.2627173674</v>
+        <v>537511</v>
       </c>
       <c r="I376">
         <v>238671.9858412424</v>
       </c>
       <c r="J376">
-        <v>97188.07663056247</v>
+        <v>97395</v>
       </c>
     </row>
     <row r="377">
@@ -15954,7 +15954,7 @@
         <v>0.272337880961416</v>
       </c>
       <c r="F390">
-        <v>0.05697144995583839</v>
+        <v>0.057</v>
       </c>
       <c r="G390">
         <v>0.4867534865813892</v>
@@ -15994,7 +15994,7 @@
         <v>0.2701071987850145</v>
       </c>
       <c r="F391">
-        <v>0.05611763176186464</v>
+        <v>0.057</v>
       </c>
       <c r="G391">
         <v>0.4855504836639888</v>
@@ -16034,7 +16034,7 @@
         <v>0.2684430077824387</v>
       </c>
       <c r="F392">
-        <v>0.05549673689080679</v>
+        <v>0.057</v>
       </c>
       <c r="G392">
         <v>0.4845130391362514</v>
@@ -16074,7 +16074,7 @@
         <v>0.2669663197059922</v>
       </c>
       <c r="F393">
-        <v>0.05497583823092602</v>
+        <v>0.057</v>
       </c>
       <c r="G393">
         <v>0.483431841920975</v>
@@ -16114,7 +16114,7 @@
         <v>0.2658811364717243</v>
       </c>
       <c r="F394">
-        <v>0.05463847496175465</v>
+        <v>0.057</v>
       </c>
       <c r="G394">
         <v>0.4824658220353689</v>
@@ -16154,7 +16154,7 @@
         <v>0.2650914640382754</v>
       </c>
       <c r="F395">
-        <v>0.05446228491450091</v>
+        <v>0.057</v>
       </c>
       <c r="G395">
         <v>0.4815643158905484</v>
@@ -16194,7 +16194,7 @@
         <v>0.264625612133373</v>
       </c>
       <c r="F396">
-        <v>0.05445875839873086</v>
+        <v>0.057</v>
       </c>
       <c r="G396">
         <v>0.4807986352509503</v>
@@ -16234,7 +16234,7 @@
         <v>0.2644288754709487</v>
       </c>
       <c r="F397">
-        <v>0.05462778902921284</v>
+        <v>0.057</v>
       </c>
       <c r="G397">
         <v>0.4801314724774238</v>
@@ -16274,7 +16274,7 @@
         <v>0.2644974125643893</v>
       </c>
       <c r="F398">
-        <v>0.05497245591512164</v>
+        <v>0.057</v>
       </c>
       <c r="G398">
         <v>0.4796043466552847</v>
@@ -16314,7 +16314,7 @@
         <v>0.2647934290946456</v>
       </c>
       <c r="F399">
-        <v>0.05547335818704986</v>
+        <v>0.057</v>
       </c>
       <c r="G399">
         <v>0.479240853305831</v>
@@ -16354,7 +16354,7 @@
         <v>0.2653130110046596</v>
       </c>
       <c r="F400">
-        <v>0.05616401804561238</v>
+        <v>0.057</v>
       </c>
       <c r="G400">
         <v>0.4790304972759221</v>
@@ -17874,10 +17874,10 @@
         <v>0.2444336501856545</v>
       </c>
       <c r="F438">
-        <v>0.05632951775712026</v>
+        <v>0.057</v>
       </c>
       <c r="G438">
-        <v>0.4676550076114146</v>
+        <v>0.468</v>
       </c>
       <c r="H438">
         <v>743043.5725153448</v>
@@ -17914,10 +17914,10 @@
         <v>0.2416205161403039</v>
       </c>
       <c r="F439">
-        <v>0.05558577884294404</v>
+        <v>0.057</v>
       </c>
       <c r="G439">
-        <v>0.4672881480392064</v>
+        <v>0.468</v>
       </c>
       <c r="H439">
         <v>749216.5202387376</v>
@@ -17951,13 +17951,13 @@
         </is>
       </c>
       <c r="E440">
-        <v>0.2390239576356409</v>
+        <v>0.24</v>
       </c>
       <c r="F440">
-        <v>0.05494177735674269</v>
+        <v>0.057</v>
       </c>
       <c r="G440">
-        <v>0.4669800534352387</v>
+        <v>0.468</v>
       </c>
       <c r="H440">
         <v>754987.1404794045</v>
@@ -17991,13 +17991,13 @@
         </is>
       </c>
       <c r="E441">
-        <v>0.2362607851801057</v>
+        <v>0.24</v>
       </c>
       <c r="F441">
-        <v>0.05435996224243651</v>
+        <v>0.057</v>
       </c>
       <c r="G441">
-        <v>0.4667112674534266</v>
+        <v>0.468</v>
       </c>
       <c r="H441">
         <v>761362.2360833045</v>
@@ -18031,13 +18031,13 @@
         </is>
       </c>
       <c r="E442">
-        <v>0.2338697820108917</v>
+        <v>0.24</v>
       </c>
       <c r="F442">
-        <v>0.05402756108414786</v>
+        <v>0.057</v>
       </c>
       <c r="G442">
-        <v>0.4665695820105475</v>
+        <v>0.468</v>
       </c>
       <c r="H442">
         <v>767290.5405325268</v>
@@ -18071,13 +18071,13 @@
         </is>
       </c>
       <c r="E443">
-        <v>0.2318746152695781</v>
+        <v>0.24</v>
       </c>
       <c r="F443">
-        <v>0.05402857600061686</v>
+        <v>0.057</v>
       </c>
       <c r="G443">
-        <v>0.4665947636050987</v>
+        <v>0.468</v>
       </c>
       <c r="H443">
         <v>772924.4482376145</v>
@@ -18111,13 +18111,13 @@
         </is>
       </c>
       <c r="E444">
-        <v>0.2305792416720523</v>
+        <v>0.24</v>
       </c>
       <c r="F444">
-        <v>0.05446456240921337</v>
+        <v>0.057</v>
       </c>
       <c r="G444">
-        <v>0.466832294662783</v>
+        <v>0.468</v>
       </c>
       <c r="H444">
         <v>777668.0427586267</v>
@@ -18151,13 +18151,13 @@
         </is>
       </c>
       <c r="E445">
-        <v>0.2300803703313394</v>
+        <v>0.24</v>
       </c>
       <c r="F445">
-        <v>0.05547074826646983</v>
+        <v>0.057</v>
       </c>
       <c r="G445">
-        <v>0.4673472227821349</v>
+        <v>0.468</v>
       </c>
       <c r="H445">
         <v>781594.7378442261</v>
@@ -18191,7 +18191,7 @@
         </is>
       </c>
       <c r="E446">
-        <v>0.2306210140928333</v>
+        <v>0.24</v>
       </c>
       <c r="F446">
         <v>0.0571496125399334</v>
@@ -18231,7 +18231,7 @@
         </is>
       </c>
       <c r="E447">
-        <v>0.2323111365224573</v>
+        <v>0.24</v>
       </c>
       <c r="F447">
         <v>0.05951753695969701</v>
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E448">
-        <v>0.2354464798017133</v>
+        <v>0.24</v>
       </c>
       <c r="F448">
         <v>0.06283854534970429</v>
@@ -18831,10 +18831,10 @@
         </is>
       </c>
       <c r="E462">
-        <v>0.3492002003783483</v>
+        <v>0.345</v>
       </c>
       <c r="F462">
-        <v>0.1442315047517581</v>
+        <v>0.142</v>
       </c>
       <c r="G462">
         <v>0.5164340447709317</v>
@@ -18871,10 +18871,10 @@
         </is>
       </c>
       <c r="E463">
-        <v>0.3517099863565395</v>
+        <v>0.345</v>
       </c>
       <c r="F463">
-        <v>0.1451804697274179</v>
+        <v>0.142</v>
       </c>
       <c r="G463">
         <v>0.5184375664313884</v>
@@ -18911,10 +18911,10 @@
         </is>
       </c>
       <c r="E464">
-        <v>0.3526598556270026</v>
+        <v>0.345</v>
       </c>
       <c r="F464">
-        <v>0.1450522599974881</v>
+        <v>0.142</v>
       </c>
       <c r="G464">
         <v>0.5199079411131731</v>
@@ -18951,10 +18951,10 @@
         </is>
       </c>
       <c r="E465">
-        <v>0.3524038267596465</v>
+        <v>0.345</v>
       </c>
       <c r="F465">
-        <v>0.1439489719858798</v>
+        <v>0.142</v>
       </c>
       <c r="G465">
         <v>0.5211943336181094</v>
@@ -18991,10 +18991,10 @@
         </is>
       </c>
       <c r="E466">
-        <v>0.3509965566445972</v>
+        <v>0.345</v>
       </c>
       <c r="F466">
-        <v>0.1420476071010922</v>
+        <v>0.142</v>
       </c>
       <c r="G466">
         <v>0.5221312447676458</v>
@@ -19031,7 +19031,7 @@
         </is>
       </c>
       <c r="E467">
-        <v>0.348503260526311</v>
+        <v>0.345</v>
       </c>
       <c r="F467">
         <v>0.1393583467592936</v>
@@ -19071,13 +19071,13 @@
         </is>
       </c>
       <c r="E468">
-        <v>0.3452370265057943</v>
+        <v>0.345</v>
       </c>
       <c r="F468">
         <v>0.136185772860225</v>
       </c>
       <c r="G468">
-        <v>0.523242303902847</v>
+        <v>0.523</v>
       </c>
       <c r="H468">
         <v>711811.1685281371</v>
@@ -19117,7 +19117,7 @@
         <v>0.1324553195524361</v>
       </c>
       <c r="G469">
-        <v>0.5234710475399795</v>
+        <v>0.523</v>
       </c>
       <c r="H469">
         <v>721535.5906078924</v>
@@ -19157,7 +19157,7 @@
         <v>0.1284045113601168</v>
       </c>
       <c r="G470">
-        <v>0.5235223792740727</v>
+        <v>0.523</v>
       </c>
       <c r="H470">
         <v>732605.0642078967</v>
@@ -19197,7 +19197,7 @@
         <v>0.1243118755658306</v>
       </c>
       <c r="G471">
-        <v>0.5234379963799908</v>
+        <v>0.523</v>
       </c>
       <c r="H471">
         <v>744494.2805455787</v>
@@ -19237,7 +19237,7 @@
         <v>0.120041508858446</v>
       </c>
       <c r="G472">
-        <v>0.5232482963608824</v>
+        <v>0.523</v>
       </c>
       <c r="H472">
         <v>757888.5468514937</v>
@@ -20006,7 +20006,7 @@
         <v>230958.6302315151</v>
       </c>
       <c r="J491">
-        <v>98690.73179256963</v>
+        <v>98765</v>
       </c>
     </row>
     <row r="492">
@@ -20046,7 +20046,7 @@
         <v>231236.8687702062</v>
       </c>
       <c r="J492">
-        <v>98572.51182318373</v>
+        <v>98765</v>
       </c>
     </row>
     <row r="493">
@@ -20086,7 +20086,7 @@
         <v>231538.7062587358</v>
       </c>
       <c r="J493">
-        <v>98500.17486292186</v>
+        <v>98765</v>
       </c>
     </row>
     <row r="494">
@@ -20126,7 +20126,7 @@
         <v>231885.3259766752</v>
       </c>
       <c r="J494">
-        <v>98468.61044501093</v>
+        <v>98765</v>
       </c>
     </row>
     <row r="495">
@@ -20166,7 +20166,7 @@
         <v>232268.3140409745</v>
       </c>
       <c r="J495">
-        <v>98480.64500807454</v>
+        <v>98765</v>
       </c>
     </row>
     <row r="496">
@@ -20206,7 +20206,7 @@
         <v>232674.6017230039</v>
       </c>
       <c r="J496">
-        <v>98533.52468411834</v>
+        <v>98765</v>
       </c>
     </row>
     <row r="497">
@@ -20246,7 +20246,7 @@
         <v>233132.3356485681</v>
       </c>
       <c r="J497">
-        <v>98630.48678212293</v>
+        <v>98765</v>
       </c>
     </row>
     <row r="498">
@@ -22237,7 +22237,7 @@
         <v>0.08513578174597221</v>
       </c>
       <c r="G547">
-        <v>0.4607489206864349</v>
+        <v>0.461</v>
       </c>
       <c r="H547">
         <v>464527.488645363</v>
@@ -22277,7 +22277,7 @@
         <v>0.08277671700447858</v>
       </c>
       <c r="G548">
-        <v>0.4608913109994818</v>
+        <v>0.461</v>
       </c>
       <c r="H548">
         <v>466635.6806404041</v>
@@ -22394,7 +22394,7 @@
         <v>0.434355096826509</v>
       </c>
       <c r="F551">
-        <v>0.07849144672061215</v>
+        <v>0.079</v>
       </c>
       <c r="G551">
         <v>0.4630062211774632</v>
@@ -22431,10 +22431,10 @@
         </is>
       </c>
       <c r="E552">
-        <v>0.4336044967373043</v>
+        <v>0.434</v>
       </c>
       <c r="F552">
-        <v>0.077753993026608</v>
+        <v>0.079</v>
       </c>
       <c r="G552">
         <v>0.4641698487561576</v>
@@ -22471,10 +22471,10 @@
         </is>
       </c>
       <c r="E553">
-        <v>0.4331483550964533</v>
+        <v>0.434</v>
       </c>
       <c r="F553">
-        <v>0.07735744526308856</v>
+        <v>0.079</v>
       </c>
       <c r="G553">
         <v>0.4654242323241334</v>
@@ -22511,10 +22511,10 @@
         </is>
       </c>
       <c r="E554">
-        <v>0.4329284819985851</v>
+        <v>0.434</v>
       </c>
       <c r="F554">
-        <v>0.07724090391530623</v>
+        <v>0.079</v>
       </c>
       <c r="G554">
         <v>0.4668011854609879</v>
@@ -22551,10 +22551,10 @@
         </is>
       </c>
       <c r="E555">
-        <v>0.432935968797524</v>
+        <v>0.434</v>
       </c>
       <c r="F555">
-        <v>0.07738736623957593</v>
+        <v>0.079</v>
       </c>
       <c r="G555">
         <v>0.4682075578943025</v>
@@ -22591,10 +22591,10 @@
         </is>
       </c>
       <c r="E556">
-        <v>0.4331328066729973</v>
+        <v>0.434</v>
       </c>
       <c r="F556">
-        <v>0.07774616721160654</v>
+        <v>0.079</v>
       </c>
       <c r="G556">
         <v>0.4695464339266172</v>
@@ -22631,10 +22631,10 @@
         </is>
       </c>
       <c r="E557">
-        <v>0.4335043376873891</v>
+        <v>0.434</v>
       </c>
       <c r="F557">
-        <v>0.07830676389902051</v>
+        <v>0.079</v>
       </c>
       <c r="G557">
         <v>0.4708552599684854</v>
@@ -24683,7 +24683,7 @@
         <v>382086.195915291</v>
       </c>
       <c r="I608">
-        <v>225358.494427554</v>
+        <v>225486</v>
       </c>
       <c r="J608">
         <v>95801.7928635696</v>
@@ -24720,10 +24720,10 @@
         <v>0.4816023842911955</v>
       </c>
       <c r="H609">
-        <v>380839.0847748965</v>
+        <v>381406</v>
       </c>
       <c r="I609">
-        <v>225261.5131337622</v>
+        <v>225486</v>
       </c>
       <c r="J609">
         <v>95394.03063484668</v>
@@ -24760,10 +24760,10 @@
         <v>0.4804881946578834</v>
       </c>
       <c r="H610">
-        <v>379960.673823341</v>
+        <v>381406</v>
       </c>
       <c r="I610">
-        <v>225201.1562724154</v>
+        <v>225486</v>
       </c>
       <c r="J610">
         <v>95065.52480583197</v>
@@ -24800,10 +24800,10 @@
         <v>0.4795345874424455</v>
       </c>
       <c r="H611">
-        <v>379248.3187477494</v>
+        <v>381406</v>
       </c>
       <c r="I611">
-        <v>225165.6005588111</v>
+        <v>225486</v>
       </c>
       <c r="J611">
         <v>94745.74304344387</v>
@@ -24840,10 +24840,10 @@
         <v>0.4788734331872844</v>
       </c>
       <c r="H612">
-        <v>378804.9954122913</v>
+        <v>381406</v>
       </c>
       <c r="I612">
-        <v>225163.5754454652</v>
+        <v>225486</v>
       </c>
       <c r="J612">
         <v>94480.08518950199</v>
@@ -24880,10 +24880,10 @@
         <v>0.4784409777351474</v>
       </c>
       <c r="H613">
-        <v>378585.9157883937</v>
+        <v>381406</v>
       </c>
       <c r="I613">
-        <v>225196.1194018878</v>
+        <v>225486</v>
       </c>
       <c r="J613">
         <v>94250.69463205588</v>
@@ -24911,7 +24911,7 @@
         </is>
       </c>
       <c r="E614">
-        <v>0.4358004691922022</v>
+        <v>0.436</v>
       </c>
       <c r="F614">
         <v>0.1130980876050667</v>
@@ -24920,10 +24920,10 @@
         <v>0.4782462859627288</v>
       </c>
       <c r="H614">
-        <v>378590.632533787</v>
+        <v>381406</v>
       </c>
       <c r="I614">
-        <v>225262.2560972268</v>
+        <v>225486</v>
       </c>
       <c r="J614">
         <v>94072.23092277553</v>
@@ -24951,7 +24951,7 @@
         </is>
       </c>
       <c r="E615">
-        <v>0.4355653266832268</v>
+        <v>0.436</v>
       </c>
       <c r="F615">
         <v>0.1126804047110321</v>
@@ -24960,10 +24960,10 @@
         <v>0.4782567012116253</v>
       </c>
       <c r="H615">
-        <v>378804.2269586217</v>
+        <v>381406</v>
       </c>
       <c r="I615">
-        <v>225367.5681215715</v>
+        <v>225486</v>
       </c>
       <c r="J615">
         <v>93932.65039268792</v>
@@ -24991,7 +24991,7 @@
         </is>
       </c>
       <c r="E616">
-        <v>0.4354780211719584</v>
+        <v>0.436</v>
       </c>
       <c r="F616">
         <v>0.1123655158493607</v>
@@ -25000,7 +25000,7 @@
         <v>0.4784621822226454</v>
       </c>
       <c r="H616">
-        <v>379214.4806217066</v>
+        <v>381406</v>
       </c>
       <c r="I616">
         <v>225511.6497110436</v>
@@ -25031,7 +25031,7 @@
         </is>
       </c>
       <c r="E617">
-        <v>0.4355267909059291</v>
+        <v>0.436</v>
       </c>
       <c r="F617">
         <v>0.1121551960381779</v>
@@ -25040,13 +25040,13 @@
         <v>0.478827720942902</v>
       </c>
       <c r="H617">
-        <v>379784.0043364762</v>
+        <v>381406</v>
       </c>
       <c r="I617">
         <v>225689.1329201723</v>
       </c>
       <c r="J617">
-        <v>93790.46671783696</v>
+        <v>93823</v>
       </c>
     </row>
     <row r="618">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E618">
-        <v>0.4357071355737726</v>
+        <v>0.436</v>
       </c>
       <c r="F618">
         <v>0.1120318462827549</v>
@@ -25080,13 +25080,13 @@
         <v>0.4793580094135035</v>
       </c>
       <c r="H618">
-        <v>380535.5332110394</v>
+        <v>381406</v>
       </c>
       <c r="I618">
         <v>225913.0234399659</v>
       </c>
       <c r="J618">
-        <v>93785.23812155833</v>
+        <v>93823</v>
       </c>
     </row>
     <row r="619">
@@ -27077,7 +27077,7 @@
         <v>0.1160661527996569</v>
       </c>
       <c r="G668">
-        <v>0.4648710559634585</v>
+        <v>0.465</v>
       </c>
       <c r="H668">
         <v>437197.2238649624</v>
@@ -27117,7 +27117,7 @@
         <v>0.1142170687002173</v>
       </c>
       <c r="G669">
-        <v>0.4647652127128177</v>
+        <v>0.465</v>
       </c>
       <c r="H669">
         <v>437839.4102909844</v>
@@ -27157,7 +27157,7 @@
         <v>0.112657591458364</v>
       </c>
       <c r="G670">
-        <v>0.4647017562678877</v>
+        <v>0.465</v>
       </c>
       <c r="H670">
         <v>438306.0925554691</v>
@@ -27197,7 +27197,7 @@
         <v>0.1110954057291217</v>
       </c>
       <c r="G671">
-        <v>0.4646806937139998</v>
+        <v>0.465</v>
       </c>
       <c r="H671">
         <v>438711.6942346163</v>
@@ -27234,10 +27234,10 @@
         <v>0.4564113405111774</v>
       </c>
       <c r="F672">
-        <v>0.1097894972097898</v>
+        <v>0.11</v>
       </c>
       <c r="G672">
-        <v>0.4647229913744406</v>
+        <v>0.465</v>
       </c>
       <c r="H672">
         <v>439007.3368038282</v>
@@ -27274,10 +27274,10 @@
         <v>0.4584171537135054</v>
       </c>
       <c r="F673">
-        <v>0.1086970443264917</v>
+        <v>0.11</v>
       </c>
       <c r="G673">
-        <v>0.4648458477505859</v>
+        <v>0.465</v>
       </c>
       <c r="H673">
         <v>439227.9701353543</v>
@@ -27314,7 +27314,7 @@
         <v>0.4605814966183309</v>
       </c>
       <c r="F674">
-        <v>0.1079308744930994</v>
+        <v>0.11</v>
       </c>
       <c r="G674">
         <v>0.4650551002061617</v>
@@ -27354,7 +27354,7 @@
         <v>0.4630186040815302</v>
       </c>
       <c r="F675">
-        <v>0.107484148714799</v>
+        <v>0.11</v>
       </c>
       <c r="G675">
         <v>0.4653790775622195</v>
@@ -27394,7 +27394,7 @@
         <v>0.4656290728180672</v>
       </c>
       <c r="F676">
-        <v>0.1074330256693554</v>
+        <v>0.11</v>
       </c>
       <c r="G676">
         <v>0.465827185500417</v>
@@ -27434,7 +27434,7 @@
         <v>0.4682913107430925</v>
       </c>
       <c r="F677">
-        <v>0.1078030301779871</v>
+        <v>0.11</v>
       </c>
       <c r="G677">
         <v>0.4663929420212433</v>
@@ -27474,7 +27474,7 @@
         <v>0.4711527457138293</v>
       </c>
       <c r="F678">
-        <v>0.1086630682020152</v>
+        <v>0.11</v>
       </c>
       <c r="G678">
         <v>0.4671284428834332</v>
@@ -28431,7 +28431,7 @@
         </is>
       </c>
       <c r="E702">
-        <v>0.5635178596791122</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F702">
         <v>0.2199857662983636</v>
@@ -28514,7 +28514,7 @@
         <v>0.56111957722676</v>
       </c>
       <c r="F704">
-        <v>0.2231151122047421</v>
+        <v>0.222</v>
       </c>
       <c r="G704">
         <v>0.5209041045625379</v>
@@ -28554,7 +28554,7 @@
         <v>0.5579711978667592</v>
       </c>
       <c r="F705">
-        <v>0.2232995449575894</v>
+        <v>0.222</v>
       </c>
       <c r="G705">
         <v>0.5202302615335784</v>
@@ -28594,7 +28594,7 @@
         <v>0.5541606914132083</v>
       </c>
       <c r="F706">
-        <v>0.2227342228694526</v>
+        <v>0.222</v>
       </c>
       <c r="G706">
         <v>0.519188416484512</v>
@@ -29606,7 +29606,7 @@
         <v>229298.5644348137</v>
       </c>
       <c r="J731">
-        <v>95680.86509261355</v>
+        <v>95788</v>
       </c>
     </row>
     <row r="732">
@@ -29646,7 +29646,7 @@
         <v>229541.297308854</v>
       </c>
       <c r="J732">
-        <v>95531.68979754044</v>
+        <v>95788</v>
       </c>
     </row>
     <row r="733">
@@ -29686,7 +29686,7 @@
         <v>229818.20823297</v>
       </c>
       <c r="J733">
-        <v>95427.11643269082</v>
+        <v>95788</v>
       </c>
     </row>
     <row r="734">
@@ -29726,7 +29726,7 @@
         <v>230147.6351019625</v>
       </c>
       <c r="J734">
-        <v>95359.82819486863</v>
+        <v>95788</v>
       </c>
     </row>
     <row r="735">
@@ -29766,7 +29766,7 @@
         <v>230508.2069904189</v>
       </c>
       <c r="J735">
-        <v>95333.83578373614</v>
+        <v>95788</v>
       </c>
     </row>
     <row r="736">
@@ -29806,7 +29806,7 @@
         <v>230923.8391907628</v>
       </c>
       <c r="J736">
-        <v>95347.06112634508</v>
+        <v>95788</v>
       </c>
     </row>
     <row r="737">
@@ -29846,7 +29846,7 @@
         <v>231383.0933871536</v>
       </c>
       <c r="J737">
-        <v>95400.67684859669</v>
+        <v>95788</v>
       </c>
     </row>
     <row r="738">
@@ -29886,7 +29886,7 @@
         <v>231868.9480113952</v>
       </c>
       <c r="J738">
-        <v>95490.68594403411</v>
+        <v>95788</v>
       </c>
     </row>
     <row r="739">
@@ -29926,7 +29926,7 @@
         <v>232413.6705382968</v>
       </c>
       <c r="J739">
-        <v>95622.74377348046</v>
+        <v>95788</v>
       </c>
     </row>
     <row r="740">
@@ -31914,7 +31914,7 @@
         <v>0.3763090928549719</v>
       </c>
       <c r="F789">
-        <v>0.08273467877103556</v>
+        <v>0.083</v>
       </c>
       <c r="G789">
         <v>0.4848851402632557</v>
@@ -32397,7 +32397,7 @@
         <v>0.09879413704459257</v>
       </c>
       <c r="G801">
-        <v>0.4819806485786167</v>
+        <v>0.482</v>
       </c>
       <c r="H801">
         <v>523032.1350559739</v>
@@ -33837,7 +33837,7 @@
         <v>0.1869678568642138</v>
       </c>
       <c r="G837">
-        <v>0.5386997581951912</v>
+        <v>0.536</v>
       </c>
       <c r="H837">
         <v>585867.5241936869</v>
@@ -33877,7 +33877,7 @@
         <v>0.1865211023689115</v>
       </c>
       <c r="G838">
-        <v>0.5409141584083352</v>
+        <v>0.536</v>
       </c>
       <c r="H838">
         <v>599040.3488583353</v>
@@ -33917,7 +33917,7 @@
         <v>0.1857438135106539</v>
       </c>
       <c r="G839">
-        <v>0.5424528034016541</v>
+        <v>0.536</v>
       </c>
       <c r="H839">
         <v>610794.5550731441</v>
@@ -33957,7 +33957,7 @@
         <v>0.1844501625987282</v>
       </c>
       <c r="G840">
-        <v>0.543596375335861</v>
+        <v>0.536</v>
       </c>
       <c r="H840">
         <v>623568.3600391005</v>
@@ -33997,7 +33997,7 @@
         <v>0.1827458623264533</v>
       </c>
       <c r="G841">
-        <v>0.5440943145954952</v>
+        <v>0.536</v>
       </c>
       <c r="H841">
         <v>635610.5052779906</v>
@@ -34037,7 +34037,7 @@
         <v>0.1804969311638895</v>
       </c>
       <c r="G842">
-        <v>0.5439280012702273</v>
+        <v>0.536</v>
       </c>
       <c r="H842">
         <v>647638.6785086544</v>
@@ -34077,7 +34077,7 @@
         <v>0.1778289709366792</v>
       </c>
       <c r="G843">
-        <v>0.5430585659180509</v>
+        <v>0.536</v>
       </c>
       <c r="H843">
         <v>658795.3878532914</v>
@@ -34117,7 +34117,7 @@
         <v>0.1745437561178869</v>
       </c>
       <c r="G844">
-        <v>0.5413762303211826</v>
+        <v>0.536</v>
       </c>
       <c r="H844">
         <v>669739.2919711247</v>
@@ -34157,7 +34157,7 @@
         <v>0.1707008623820562</v>
       </c>
       <c r="G845">
-        <v>0.5388444592244789</v>
+        <v>0.536</v>
       </c>
       <c r="H845">
         <v>680002.3979721261</v>
@@ -34486,7 +34486,7 @@
         <v>230106.6898113266</v>
       </c>
       <c r="J853">
-        <v>92769.27920554391</v>
+        <v>92776</v>
       </c>
     </row>
     <row r="854">
@@ -34526,7 +34526,7 @@
         <v>230382.2061060807</v>
       </c>
       <c r="J854">
-        <v>92631.97123529043</v>
+        <v>92776</v>
       </c>
     </row>
     <row r="855">
@@ -34566,7 +34566,7 @@
         <v>230693.1484051223</v>
       </c>
       <c r="J855">
-        <v>92531.33338153051</v>
+        <v>92776</v>
       </c>
     </row>
     <row r="856">
@@ -34606,7 +34606,7 @@
         <v>231020.7076178981</v>
       </c>
       <c r="J856">
-        <v>92473.58900465234</v>
+        <v>92776</v>
       </c>
     </row>
     <row r="857">
@@ -34646,7 +34646,7 @@
         <v>231388.0286651008</v>
       </c>
       <c r="J857">
-        <v>92454.60703584403</v>
+        <v>92776</v>
       </c>
     </row>
     <row r="858">
@@ -34686,7 +34686,7 @@
         <v>231785.99482211</v>
       </c>
       <c r="J858">
-        <v>92476.69323376747</v>
+        <v>92776</v>
       </c>
     </row>
     <row r="859">
@@ -34726,7 +34726,7 @@
         <v>232201.5670453605</v>
       </c>
       <c r="J859">
-        <v>92536.89697362151</v>
+        <v>92776</v>
       </c>
     </row>
     <row r="860">
@@ -34766,7 +34766,7 @@
         <v>232663.7577895765</v>
       </c>
       <c r="J860">
-        <v>92638.95039437638</v>
+        <v>92776</v>
       </c>
     </row>
     <row r="861">
@@ -34837,7 +34837,7 @@
         <v>0.08867032259495849</v>
       </c>
       <c r="G862">
-        <v>0.5241284600163568</v>
+        <v>0.524</v>
       </c>
       <c r="H862">
         <v>468680.7669773928</v>
@@ -34877,7 +34877,7 @@
         <v>0.08740691214651175</v>
       </c>
       <c r="G863">
-        <v>0.5242323606823133</v>
+        <v>0.524</v>
       </c>
       <c r="H863">
         <v>470964.5427507224</v>
@@ -34917,7 +34917,7 @@
         <v>0.08632052198405298</v>
       </c>
       <c r="G864">
-        <v>0.5242972292258944</v>
+        <v>0.524</v>
       </c>
       <c r="H864">
         <v>472997.4257184335</v>
@@ -34957,7 +34957,7 @@
         <v>0.08517591506468389</v>
       </c>
       <c r="G865">
-        <v>0.524328255122755</v>
+        <v>0.524</v>
       </c>
       <c r="H865">
         <v>475225.7155663212</v>
@@ -34997,7 +34997,7 @@
         <v>0.0841240315811157</v>
       </c>
       <c r="G866">
-        <v>0.5243088461848315</v>
+        <v>0.524</v>
       </c>
       <c r="H866">
         <v>477370.2798336378</v>
@@ -35037,7 +35037,7 @@
         <v>0.08309216809299545</v>
       </c>
       <c r="G867">
-        <v>0.5242285021326936</v>
+        <v>0.524</v>
       </c>
       <c r="H867">
         <v>479585.3788994259</v>
@@ -35077,7 +35077,7 @@
         <v>0.08214442883723053</v>
       </c>
       <c r="G868">
-        <v>0.5240835939233716</v>
+        <v>0.524</v>
       </c>
       <c r="H868">
         <v>481738.9096465848</v>
@@ -37554,7 +37554,7 @@
         <v>0.2853573897710571</v>
       </c>
       <c r="F930">
-        <v>0.05391637331244815</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="G930">
         <v>0.4739101151847927</v>
@@ -37594,7 +37594,7 @@
         <v>0.2855831979144929</v>
       </c>
       <c r="F931">
-        <v>0.05366084736358714</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="G931">
         <v>0.4721315218184734</v>
@@ -37634,7 +37634,7 @@
         <v>0.2861396612081805</v>
       </c>
       <c r="F932">
-        <v>0.05367602065283757</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="G932">
         <v>0.4704449783955773</v>
@@ -37717,7 +37717,7 @@
         <v>0.0546800412835611</v>
       </c>
       <c r="G934">
-        <v>0.4677377229873766</v>
+        <v>0.469</v>
       </c>
       <c r="H934">
         <v>645692.2081636294</v>
@@ -37757,7 +37757,7 @@
         <v>0.05567687994712003</v>
       </c>
       <c r="G935">
-        <v>0.4667281196071137</v>
+        <v>0.469</v>
       </c>
       <c r="H935">
         <v>641268.2827327254</v>
@@ -37797,7 +37797,7 @@
         <v>0.05685271232636998</v>
       </c>
       <c r="G936">
-        <v>0.4660242266888353</v>
+        <v>0.469</v>
       </c>
       <c r="H936">
         <v>636931.5882813967</v>
@@ -37837,7 +37837,7 @@
         <v>0.05832322969199907</v>
       </c>
       <c r="G937">
-        <v>0.4655415988069248</v>
+        <v>0.469</v>
       </c>
       <c r="H937">
         <v>632332.8831076804</v>
@@ -37877,7 +37877,7 @@
         <v>0.05991121910135216</v>
       </c>
       <c r="G938">
-        <v>0.4653522998112116</v>
+        <v>0.469</v>
       </c>
       <c r="H938">
         <v>628161.2138493764</v>
@@ -37917,7 +37917,7 @@
         <v>0.06167475971242899</v>
       </c>
       <c r="G939">
-        <v>0.4654567049947522</v>
+        <v>0.469</v>
       </c>
       <c r="H939">
         <v>624394.3219984749</v>
@@ -37957,7 +37957,7 @@
         <v>0.06345433208497671</v>
       </c>
       <c r="G940">
-        <v>0.4658605178685882</v>
+        <v>0.469</v>
       </c>
       <c r="H940">
         <v>621520.140997721</v>
@@ -37997,7 +37997,7 @@
         <v>0.06532078757454135</v>
       </c>
       <c r="G941">
-        <v>0.4666036545170791</v>
+        <v>0.469</v>
       </c>
       <c r="H941">
         <v>619602.9115562749</v>
@@ -38037,7 +38037,7 @@
         <v>0.06716668877868157</v>
       </c>
       <c r="G942">
-        <v>0.467691204795752</v>
+        <v>0.469</v>
       </c>
       <c r="H942">
         <v>619015.7451123644</v>
@@ -39286,7 +39286,7 @@
         <v>253938.6213109112</v>
       </c>
       <c r="J973">
-        <v>98414.52910390632</v>
+        <v>98583</v>
       </c>
     </row>
     <row r="974">
@@ -39326,7 +39326,7 @@
         <v>254262.5547713797</v>
       </c>
       <c r="J974">
-        <v>98256.66978311892</v>
+        <v>98583</v>
       </c>
     </row>
     <row r="975">
@@ -39366,7 +39366,7 @@
         <v>254602.3607529431</v>
       </c>
       <c r="J975">
-        <v>98148.51728171007</v>
+        <v>98583</v>
       </c>
     </row>
     <row r="976">
@@ -39406,7 +39406,7 @@
         <v>254981.7305131608</v>
       </c>
       <c r="J976">
-        <v>98082.04930092493</v>
+        <v>98583</v>
       </c>
     </row>
     <row r="977">
@@ -39446,7 +39446,7 @@
         <v>255377.1817268619</v>
       </c>
       <c r="J977">
-        <v>98060.77670616331</v>
+        <v>98583</v>
       </c>
     </row>
     <row r="978">
@@ -39486,7 +39486,7 @@
         <v>255816.1153337484</v>
       </c>
       <c r="J978">
-        <v>98082.46919244686</v>
+        <v>98583</v>
       </c>
     </row>
     <row r="979">
@@ -39526,7 +39526,7 @@
         <v>256286.9008933244</v>
       </c>
       <c r="J979">
-        <v>98147.72637059378</v>
+        <v>98583</v>
       </c>
     </row>
     <row r="980">
@@ -39566,7 +39566,7 @@
         <v>256773.8311803067</v>
       </c>
       <c r="J980">
-        <v>98251.57193352509</v>
+        <v>98583</v>
       </c>
     </row>
     <row r="981">
@@ -39606,7 +39606,7 @@
         <v>257310.4057392826</v>
       </c>
       <c r="J981">
-        <v>98400.1167867753</v>
+        <v>98583</v>
       </c>
     </row>
     <row r="982">
@@ -40077,7 +40077,7 @@
         <v>0.08673822239894272</v>
       </c>
       <c r="G993">
-        <v>0.5553293616990378</v>
+        <v>0.555</v>
       </c>
       <c r="H993">
         <v>678197.9690990858</v>
@@ -41594,10 +41594,10 @@
         <v>0.289281259071836</v>
       </c>
       <c r="F1031">
-        <v>0.05929058513791619</v>
+        <v>0.06</v>
       </c>
       <c r="G1031">
-        <v>0.4957021082697361</v>
+        <v>0.496</v>
       </c>
       <c r="H1031">
         <v>748470.2732969092</v>
@@ -41634,10 +41634,10 @@
         <v>0.2885325320167667</v>
       </c>
       <c r="F1032">
-        <v>0.05887294463121931</v>
+        <v>0.06</v>
       </c>
       <c r="G1032">
-        <v>0.4956172436293916</v>
+        <v>0.496</v>
       </c>
       <c r="H1032">
         <v>751591.042208602</v>
@@ -41674,10 +41674,10 @@
         <v>0.2878440312699167</v>
       </c>
       <c r="F1033">
-        <v>0.05871368667829055</v>
+        <v>0.06</v>
       </c>
       <c r="G1033">
-        <v>0.495703549287788</v>
+        <v>0.496</v>
       </c>
       <c r="H1033">
         <v>754325.3555140045</v>
@@ -41714,10 +41714,10 @@
         <v>0.2870832145132991</v>
       </c>
       <c r="F1034">
-        <v>0.05874234753518286</v>
+        <v>0.06</v>
       </c>
       <c r="G1034">
-        <v>0.4959572173206462</v>
+        <v>0.496</v>
       </c>
       <c r="H1034">
         <v>757278.4143284807</v>
@@ -41754,7 +41754,7 @@
         <v>0.2863632280217949</v>
       </c>
       <c r="F1035">
-        <v>0.0589392251422997</v>
+        <v>0.06</v>
       </c>
       <c r="G1035">
         <v>0.4963388380503699</v>
@@ -41794,7 +41794,7 @@
         <v>0.2856519189931773</v>
       </c>
       <c r="F1036">
-        <v>0.0592790410073348</v>
+        <v>0.06</v>
       </c>
       <c r="G1036">
         <v>0.4968502824653502</v>
@@ -41834,7 +41834,7 @@
         <v>0.2850103467726919</v>
       </c>
       <c r="F1037">
-        <v>0.05970311065354972</v>
+        <v>0.06</v>
       </c>
       <c r="G1037">
         <v>0.497435992028821</v>
@@ -42071,7 +42071,7 @@
         </is>
       </c>
       <c r="E1043">
-        <v>0.2829620149166776</v>
+        <v>0.283</v>
       </c>
       <c r="F1043">
         <v>0.06223825493330869</v>
@@ -43034,7 +43034,7 @@
         <v>0.3415049974167328</v>
       </c>
       <c r="F1067">
-        <v>0.1038914180383606</v>
+        <v>0.103</v>
       </c>
       <c r="G1067">
         <v>0.5308493442649215</v>
@@ -43074,7 +43074,7 @@
         <v>0.3424032330393814</v>
       </c>
       <c r="F1068">
-        <v>0.1042160687123316</v>
+        <v>0.103</v>
       </c>
       <c r="G1068">
         <v>0.5314755974187986</v>
@@ -43114,7 +43114,7 @@
         <v>0.3427283014334005</v>
       </c>
       <c r="F1069">
-        <v>0.1040803293098232</v>
+        <v>0.103</v>
       </c>
       <c r="G1069">
         <v>0.5318702229950352</v>
@@ -43154,7 +43154,7 @@
         <v>0.3425889239921023</v>
       </c>
       <c r="F1070">
-        <v>0.1035195223692016</v>
+        <v>0.103</v>
       </c>
       <c r="G1070">
         <v>0.5321407337310744</v>
@@ -44166,7 +44166,7 @@
         <v>199403.7702207855</v>
       </c>
       <c r="J1095">
-        <v>90664.8873045535</v>
+        <v>90774</v>
       </c>
     </row>
     <row r="1096">
@@ -44206,7 +44206,7 @@
         <v>199632.7696303748</v>
       </c>
       <c r="J1096">
-        <v>90546.3257533719</v>
+        <v>90774</v>
       </c>
     </row>
     <row r="1097">
@@ -44246,7 +44246,7 @@
         <v>199891.6681638307</v>
       </c>
       <c r="J1097">
-        <v>90463.06530795313</v>
+        <v>90774</v>
       </c>
     </row>
     <row r="1098">
@@ -44286,7 +44286,7 @@
         <v>200164.9282063281</v>
       </c>
       <c r="J1098">
-        <v>90420.29496290628</v>
+        <v>90774</v>
       </c>
     </row>
     <row r="1099">
@@ -44326,7 +44326,7 @@
         <v>200471.9846957457</v>
       </c>
       <c r="J1099">
-        <v>90414.97255261577</v>
+        <v>90774</v>
       </c>
     </row>
     <row r="1100">
@@ -44366,7 +44366,7 @@
         <v>200805.3712440825</v>
       </c>
       <c r="J1100">
-        <v>90448.96709029276</v>
+        <v>90774</v>
       </c>
     </row>
     <row r="1101">
@@ -44406,7 +44406,7 @@
         <v>201154.2514349843</v>
       </c>
       <c r="J1101">
-        <v>90519.11534710889</v>
+        <v>90774</v>
       </c>
     </row>
     <row r="1102">
@@ -44446,7 +44446,7 @@
         <v>201543.1015495569</v>
       </c>
       <c r="J1102">
-        <v>90629.90306423945</v>
+        <v>90774</v>
       </c>
     </row>
     <row r="1103">
@@ -45637,7 +45637,7 @@
         <v>0.1389404033525174</v>
       </c>
       <c r="G1132">
-        <v>0.4594501429598481</v>
+        <v>0.46</v>
       </c>
       <c r="H1132">
         <v>316264.5118082296</v>
@@ -45677,7 +45677,7 @@
         <v>0.1371454855405725</v>
       </c>
       <c r="G1133">
-        <v>0.4590527073512813</v>
+        <v>0.46</v>
       </c>
       <c r="H1133">
         <v>320242.3849839398</v>
@@ -45717,7 +45717,7 @@
         <v>0.1353178210591379</v>
       </c>
       <c r="G1134">
-        <v>0.4588566957184129</v>
+        <v>0.46</v>
       </c>
       <c r="H1134">
         <v>324232.1501977777</v>
@@ -45757,7 +45757,7 @@
         <v>0.133404964410563</v>
       </c>
       <c r="G1135">
-        <v>0.4588274771485054</v>
+        <v>0.46</v>
       </c>
       <c r="H1135">
         <v>328381.6720342</v>
@@ -45797,7 +45797,7 @@
         <v>0.1315379763614607</v>
       </c>
       <c r="G1136">
-        <v>0.4589525098152802</v>
+        <v>0.46</v>
       </c>
       <c r="H1136">
         <v>332438.3409281761</v>
@@ -45837,7 +45837,7 @@
         <v>0.1298420468795523</v>
       </c>
       <c r="G1137">
-        <v>0.4591995090182532</v>
+        <v>0.46</v>
       </c>
       <c r="H1137">
         <v>336161.431718339</v>
@@ -45877,7 +45877,7 @@
         <v>0.1282735128004888</v>
       </c>
       <c r="G1138">
-        <v>0.4595633779004095</v>
+        <v>0.46</v>
       </c>
       <c r="H1138">
         <v>339681.030694234</v>
@@ -46674,7 +46674,7 @@
         <v>0.5283593717700508</v>
       </c>
       <c r="F1158">
-        <v>0.1227758809345424</v>
+        <v>0.123</v>
       </c>
       <c r="G1158">
         <v>0.4724432222007209</v>
@@ -46714,7 +46714,7 @@
         <v>0.5277822464425873</v>
       </c>
       <c r="F1159">
-        <v>0.1225261062094031</v>
+        <v>0.123</v>
       </c>
       <c r="G1159">
         <v>0.4732066420866822</v>
@@ -46754,7 +46754,7 @@
         <v>0.527240072892094</v>
       </c>
       <c r="F1160">
-        <v>0.1223937425508578</v>
+        <v>0.123</v>
       </c>
       <c r="G1160">
         <v>0.4740382764145761</v>
@@ -46794,7 +46794,7 @@
         <v>0.5267634931920271</v>
       </c>
       <c r="F1161">
-        <v>0.1224088209844525</v>
+        <v>0.123</v>
       </c>
       <c r="G1161">
         <v>0.4749205662615687</v>
@@ -46834,7 +46834,7 @@
         <v>0.5263360551841741</v>
       </c>
       <c r="F1162">
-        <v>0.1226047741059733</v>
+        <v>0.123</v>
       </c>
       <c r="G1162">
         <v>0.4759252819224596</v>
@@ -46911,7 +46911,7 @@
         </is>
       </c>
       <c r="E1164">
-        <v>0.5257534922773103</v>
+        <v>0.526</v>
       </c>
       <c r="F1164">
         <v>0.1236511582531251</v>
@@ -46951,7 +46951,7 @@
         </is>
       </c>
       <c r="E1165">
-        <v>0.5256511128837649</v>
+        <v>0.526</v>
       </c>
       <c r="F1165">
         <v>0.1245714670992017</v>
@@ -46991,7 +46991,7 @@
         </is>
       </c>
       <c r="E1166">
-        <v>0.5257218092034119</v>
+        <v>0.526</v>
       </c>
       <c r="F1166">
         <v>0.1256512062287461</v>
@@ -48560,7 +48560,7 @@
         <v>0.5256649971623641</v>
       </c>
       <c r="H1205">
-        <v>467544.5483887671</v>
+        <v>463655</v>
       </c>
       <c r="I1205">
         <v>298696.9579603975</v>
@@ -48600,7 +48600,7 @@
         <v>0.5245641797965245</v>
       </c>
       <c r="H1206">
-        <v>470905.1463830178</v>
+        <v>463655</v>
       </c>
       <c r="I1206">
         <v>301801.7118380613</v>
@@ -48640,7 +48640,7 @@
         <v>0.5224417702778542</v>
       </c>
       <c r="H1207">
-        <v>472897.6310039744</v>
+        <v>463655</v>
       </c>
       <c r="I1207">
         <v>305086.0346990424</v>
@@ -48680,7 +48680,7 @@
         <v>0.5192475450181577</v>
       </c>
       <c r="H1208">
-        <v>473257.6673262161</v>
+        <v>463655</v>
       </c>
       <c r="I1208">
         <v>308444.6593476245</v>
@@ -48720,7 +48720,7 @@
         <v>0.515068463921587</v>
       </c>
       <c r="H1209">
-        <v>471929.8602169775</v>
+        <v>463655</v>
       </c>
       <c r="I1209">
         <v>311762.8085778156</v>
@@ -48760,7 +48760,7 @@
         <v>0.5095562914319756</v>
       </c>
       <c r="H1210">
-        <v>468699.7040213</v>
+        <v>463655</v>
       </c>
       <c r="I1210">
         <v>315258.7185225718</v>
@@ -49006,7 +49006,7 @@
         <v>207732.5234294371</v>
       </c>
       <c r="J1216">
-        <v>91415.80672031523</v>
+        <v>91577</v>
       </c>
     </row>
     <row r="1217">
@@ -49046,7 +49046,7 @@
         <v>207920.5768734123</v>
       </c>
       <c r="J1217">
-        <v>91278.98251713201</v>
+        <v>91577</v>
       </c>
     </row>
     <row r="1218">
@@ -49086,7 +49086,7 @@
         <v>208156.6422436626</v>
       </c>
       <c r="J1218">
-        <v>91185.11348393091</v>
+        <v>91577</v>
       </c>
     </row>
     <row r="1219">
@@ -49117,7 +49117,7 @@
         <v>0.1718738885116228</v>
       </c>
       <c r="G1219">
-        <v>0.5217673412389191</v>
+        <v>0.521</v>
       </c>
       <c r="H1219">
         <v>295061.743125726</v>
@@ -49126,7 +49126,7 @@
         <v>208425.4078959088</v>
       </c>
       <c r="J1219">
-        <v>91139.59302111127</v>
+        <v>91577</v>
       </c>
     </row>
     <row r="1220">
@@ -49157,7 +49157,7 @@
         <v>0.169230202484337</v>
       </c>
       <c r="G1220">
-        <v>0.5222840407661081</v>
+        <v>0.521</v>
       </c>
       <c r="H1220">
         <v>297762.5404363144</v>
@@ -49166,7 +49166,7 @@
         <v>208744.7062724041</v>
       </c>
       <c r="J1220">
-        <v>91138.69415123599</v>
+        <v>91577</v>
       </c>
     </row>
     <row r="1221">
@@ -49197,7 +49197,7 @@
         <v>0.1667056005141274</v>
       </c>
       <c r="G1221">
-        <v>0.5223160115033827</v>
+        <v>0.521</v>
       </c>
       <c r="H1221">
         <v>300146.9369853835</v>
@@ -49206,7 +49206,7 @@
         <v>209106.1733911817</v>
       </c>
       <c r="J1221">
-        <v>91183.98697039236</v>
+        <v>91577</v>
       </c>
     </row>
     <row r="1222">
@@ -49237,7 +49237,7 @@
         <v>0.1643775523334117</v>
       </c>
       <c r="G1222">
-        <v>0.5219240865160895</v>
+        <v>0.521</v>
       </c>
       <c r="H1222">
         <v>302177.97301798</v>
@@ -49246,7 +49246,7 @@
         <v>209496.0480223029</v>
       </c>
       <c r="J1222">
-        <v>91271.12942300187</v>
+        <v>91577</v>
       </c>
     </row>
     <row r="1223">
@@ -49277,7 +49277,7 @@
         <v>0.1620926435671338</v>
       </c>
       <c r="G1223">
-        <v>0.5211220881645567</v>
+        <v>0.521</v>
       </c>
       <c r="H1223">
         <v>304016.6891443209</v>
@@ -49286,7 +49286,7 @@
         <v>209940.236539946</v>
       </c>
       <c r="J1223">
-        <v>91405.23872598933</v>
+        <v>91577</v>
       </c>
     </row>
     <row r="1224">
@@ -49837,7 +49837,7 @@
         <v>0.1319813863202631</v>
       </c>
       <c r="G1237">
-        <v>0.4945728421661847</v>
+        <v>0.496</v>
       </c>
       <c r="H1237">
         <v>325196.3522535738</v>
@@ -49877,7 +49877,7 @@
         <v>0.1288407582813073</v>
       </c>
       <c r="G1238">
-        <v>0.4934269731059038</v>
+        <v>0.496</v>
       </c>
       <c r="H1238">
         <v>328259.8325318359</v>
@@ -49917,7 +49917,7 @@
         <v>0.1260170451704313</v>
       </c>
       <c r="G1239">
-        <v>0.492633614728332</v>
+        <v>0.496</v>
       </c>
       <c r="H1239">
         <v>331239.4427502822</v>
@@ -49957,7 +49957,7 @@
         <v>0.1230356502829737</v>
       </c>
       <c r="G1240">
-        <v>0.4920225916398168</v>
+        <v>0.496</v>
       </c>
       <c r="H1240">
         <v>334705.3583589518</v>
@@ -49997,7 +49997,7 @@
         <v>0.12042447293507</v>
       </c>
       <c r="G1241">
-        <v>0.4916985948823057</v>
+        <v>0.496</v>
       </c>
       <c r="H1241">
         <v>338159.0326556007</v>
@@ -50037,7 +50037,7 @@
         <v>0.118147340475478</v>
       </c>
       <c r="G1242">
-        <v>0.4916398449748477</v>
+        <v>0.496</v>
       </c>
       <c r="H1242">
         <v>341758.5129490144</v>
@@ -50077,7 +50077,7 @@
         <v>0.1164831713165372</v>
       </c>
       <c r="G1243">
-        <v>0.491849960223839</v>
+        <v>0.496</v>
       </c>
       <c r="H1243">
         <v>345202.4654583392</v>
@@ -50117,7 +50117,7 @@
         <v>0.1154589266862694</v>
       </c>
       <c r="G1244">
-        <v>0.4923427686154284</v>
+        <v>0.496</v>
       </c>
       <c r="H1244">
         <v>348648.2893732054</v>
@@ -50157,7 +50157,7 @@
         <v>0.1152816454281414</v>
       </c>
       <c r="G1245">
-        <v>0.4931156031617484</v>
+        <v>0.496</v>
       </c>
       <c r="H1245">
         <v>351905.9538018886</v>
@@ -50197,7 +50197,7 @@
         <v>0.1160499621246695</v>
       </c>
       <c r="G1246">
-        <v>0.494129955858249</v>
+        <v>0.496</v>
       </c>
       <c r="H1246">
         <v>354809.5107005317</v>
@@ -50237,7 +50237,7 @@
         <v>0.1179530037275737</v>
       </c>
       <c r="G1247">
-        <v>0.4954532705209131</v>
+        <v>0.496</v>
       </c>
       <c r="H1247">
         <v>357480.3328847194</v>
@@ -52117,7 +52117,7 @@
         <v>0.1450359246511461</v>
       </c>
       <c r="G1294">
-        <v>0.5212367083994135</v>
+        <v>0.521</v>
       </c>
       <c r="H1294">
         <v>445236.7178471714</v>
@@ -52157,7 +52157,7 @@
         <v>0.1464662650494483</v>
       </c>
       <c r="G1295">
-        <v>0.5212650455446457</v>
+        <v>0.521</v>
       </c>
       <c r="H1295">
         <v>445328.7125671392</v>
@@ -53194,7 +53194,7 @@
         <v>0.4119337130488783</v>
       </c>
       <c r="F1321">
-        <v>0.1110366427897563</v>
+        <v>0.114</v>
       </c>
       <c r="G1321">
         <v>0.5142304977456922</v>
@@ -53231,10 +53231,10 @@
         </is>
       </c>
       <c r="E1322">
-        <v>0.4065547942772893</v>
+        <v>0.408</v>
       </c>
       <c r="F1322">
-        <v>0.1086484839052149</v>
+        <v>0.114</v>
       </c>
       <c r="G1322">
         <v>0.5142200535991744</v>
@@ -53271,10 +53271,10 @@
         </is>
       </c>
       <c r="E1323">
-        <v>0.4023589771031642</v>
+        <v>0.408</v>
       </c>
       <c r="F1323">
-        <v>0.1070438213976608</v>
+        <v>0.114</v>
       </c>
       <c r="G1323">
         <v>0.513981664304253</v>
@@ -53311,10 +53311,10 @@
         </is>
       </c>
       <c r="E1324">
-        <v>0.3985265991748024</v>
+        <v>0.408</v>
       </c>
       <c r="F1324">
-        <v>0.1059430011180015</v>
+        <v>0.114</v>
       </c>
       <c r="G1324">
         <v>0.5134400429955683</v>
@@ -53351,10 +53351,10 @@
         </is>
       </c>
       <c r="E1325">
-        <v>0.3957098835258071</v>
+        <v>0.408</v>
       </c>
       <c r="F1325">
-        <v>0.1056173544570677</v>
+        <v>0.114</v>
       </c>
       <c r="G1325">
         <v>0.5126141036081344</v>
@@ -53391,10 +53391,10 @@
         </is>
       </c>
       <c r="E1326">
-        <v>0.3938050085734334</v>
+        <v>0.408</v>
       </c>
       <c r="F1326">
-        <v>0.1061130251590038</v>
+        <v>0.114</v>
       </c>
       <c r="G1326">
         <v>0.5114232035286557</v>
@@ -53431,16 +53431,16 @@
         </is>
       </c>
       <c r="E1327">
-        <v>0.3930152374026951</v>
+        <v>0.408</v>
       </c>
       <c r="F1327">
-        <v>0.1074629854203899</v>
+        <v>0.114</v>
       </c>
       <c r="G1327">
         <v>0.5099196892679456</v>
       </c>
       <c r="H1327">
-        <v>584673.1508286163</v>
+        <v>581376</v>
       </c>
       <c r="I1327">
         <v>306031.7548542729</v>
@@ -53471,16 +53471,16 @@
         </is>
       </c>
       <c r="E1328">
-        <v>0.393371878062731</v>
+        <v>0.408</v>
       </c>
       <c r="F1328">
-        <v>0.1098250861135247</v>
+        <v>0.114</v>
       </c>
       <c r="G1328">
         <v>0.5079777465544905</v>
       </c>
       <c r="H1328">
-        <v>587356.7418929551</v>
+        <v>581376</v>
       </c>
       <c r="I1328">
         <v>309234.7499694824</v>
@@ -53511,16 +53511,16 @@
         </is>
       </c>
       <c r="E1329">
-        <v>0.3950058173098682</v>
+        <v>0.408</v>
       </c>
       <c r="F1329">
-        <v>0.1132391492202718</v>
+        <v>0.114</v>
       </c>
       <c r="G1329">
         <v>0.5056151274395982</v>
       </c>
       <c r="H1329">
-        <v>588455.0505513819</v>
+        <v>581376</v>
       </c>
       <c r="I1329">
         <v>312573.819716083</v>
@@ -53551,7 +53551,7 @@
         </is>
       </c>
       <c r="E1330">
-        <v>0.3978844583143638</v>
+        <v>0.408</v>
       </c>
       <c r="F1330">
         <v>0.1176103542907836</v>
@@ -53560,7 +53560,7 @@
         <v>0.5029034270519721</v>
       </c>
       <c r="H1330">
-        <v>587894.9332656942</v>
+        <v>581376</v>
       </c>
       <c r="I1330">
         <v>315935.8676908211</v>
@@ -53591,7 +53591,7 @@
         </is>
       </c>
       <c r="E1331">
-        <v>0.4022836699370385</v>
+        <v>0.408</v>
       </c>
       <c r="F1331">
         <v>0.1232979685179673</v>
@@ -53600,7 +53600,7 @@
         <v>0.4996362853783039</v>
       </c>
       <c r="H1331">
-        <v>585521.6656980581</v>
+        <v>581376</v>
       </c>
       <c r="I1331">
         <v>319546.197040036</v>
@@ -53720,7 +53720,7 @@
         <v>0.4882678381979059</v>
       </c>
       <c r="H1334">
-        <v>466776.5812170238</v>
+        <v>471391</v>
       </c>
       <c r="I1334">
         <v>255919.4079323882</v>
@@ -53760,7 +53760,7 @@
         <v>0.4895549818288213</v>
       </c>
       <c r="H1335">
-        <v>463477.025212372</v>
+        <v>471391</v>
       </c>
       <c r="I1335">
         <v>256224.1059183309</v>
@@ -53791,7 +53791,7 @@
         </is>
       </c>
       <c r="E1336">
-        <v>0.397150358194988</v>
+        <v>0.394</v>
       </c>
       <c r="F1336">
         <v>0.08813611879627734</v>
@@ -53800,13 +53800,13 @@
         <v>0.4907254935382296</v>
       </c>
       <c r="H1336">
-        <v>461564.2798434153</v>
+        <v>471391</v>
       </c>
       <c r="I1336">
         <v>256517.8610224011</v>
       </c>
       <c r="J1336">
-        <v>99877.07999900749</v>
+        <v>100006</v>
       </c>
     </row>
     <row r="1337">
@@ -53831,7 +53831,7 @@
         </is>
       </c>
       <c r="E1337">
-        <v>0.3997845635553018</v>
+        <v>0.394</v>
       </c>
       <c r="F1337">
         <v>0.09092097522978344</v>
@@ -53840,13 +53840,13 @@
         <v>0.4920206060120649</v>
       </c>
       <c r="H1337">
-        <v>460559.1043485735</v>
+        <v>471391</v>
       </c>
       <c r="I1337">
         <v>256864.8433694079</v>
       </c>
       <c r="J1337">
-        <v>99721.16157145024</v>
+        <v>100006</v>
       </c>
     </row>
     <row r="1338">
@@ -53871,7 +53871,7 @@
         </is>
       </c>
       <c r="E1338">
-        <v>0.4014924495038442</v>
+        <v>0.394</v>
       </c>
       <c r="F1338">
         <v>0.09299301574868495</v>
@@ -53880,13 +53880,13 @@
         <v>0.4932636391481499</v>
       </c>
       <c r="H1338">
-        <v>460630.8354903742</v>
+        <v>471391</v>
       </c>
       <c r="I1338">
         <v>257223.607791976</v>
       </c>
       <c r="J1338">
-        <v>99612.6787326511</v>
+        <v>100006</v>
       </c>
     </row>
     <row r="1339">
@@ -53911,7 +53911,7 @@
         </is>
       </c>
       <c r="E1339">
-        <v>0.4024403476556077</v>
+        <v>0.394</v>
       </c>
       <c r="F1339">
         <v>0.0945267494064065</v>
@@ -53920,13 +53920,13 @@
         <v>0.4945273250792707</v>
       </c>
       <c r="H1339">
-        <v>461710.9434385067</v>
+        <v>471391</v>
       </c>
       <c r="I1339">
         <v>257619.3640548635</v>
       </c>
       <c r="J1339">
-        <v>99543.88053062919</v>
+        <v>100006</v>
       </c>
     </row>
     <row r="1340">
@@ -53951,7 +53951,7 @@
         </is>
       </c>
       <c r="E1340">
-        <v>0.4026173312246072</v>
+        <v>0.394</v>
       </c>
       <c r="F1340">
         <v>0.09545804273464115</v>
@@ -53960,13 +53960,13 @@
         <v>0.4957204325573248</v>
       </c>
       <c r="H1340">
-        <v>463659.567966108</v>
+        <v>471391</v>
       </c>
       <c r="I1340">
         <v>258027.8163588107</v>
       </c>
       <c r="J1340">
-        <v>99518.70898744823</v>
+        <v>100006</v>
       </c>
     </row>
     <row r="1341">
@@ -53991,7 +53991,7 @@
         </is>
       </c>
       <c r="E1341">
-        <v>0.4020876716671995</v>
+        <v>0.394</v>
       </c>
       <c r="F1341">
         <v>0.09588535497410237</v>
@@ -54000,13 +54000,13 @@
         <v>0.4969123653378964</v>
       </c>
       <c r="H1341">
-        <v>466533.3054685876</v>
+        <v>471391</v>
       </c>
       <c r="I1341">
         <v>258477.486994001</v>
       </c>
       <c r="J1341">
-        <v>99534.9672375019</v>
+        <v>100006</v>
       </c>
     </row>
     <row r="1342">
@@ -54031,7 +54031,7 @@
         </is>
       </c>
       <c r="E1342">
-        <v>0.4008871212627269</v>
+        <v>0.394</v>
       </c>
       <c r="F1342">
         <v>0.09580584142315762</v>
@@ -54040,13 +54040,13 @@
         <v>0.4980523790240147</v>
       </c>
       <c r="H1342">
-        <v>470206.7890183901</v>
+        <v>471391</v>
       </c>
       <c r="I1342">
         <v>258956.5267151582</v>
       </c>
       <c r="J1342">
-        <v>99593.65999707484</v>
+        <v>100006</v>
       </c>
     </row>
     <row r="1343">
@@ -54071,7 +54071,7 @@
         </is>
       </c>
       <c r="E1343">
-        <v>0.399137300734017</v>
+        <v>0.394</v>
       </c>
       <c r="F1343">
         <v>0.09528152686219293</v>
@@ -54086,7 +54086,7 @@
         <v>259449.32727849</v>
       </c>
       <c r="J1343">
-        <v>99690.3607184862</v>
+        <v>100006</v>
       </c>
     </row>
     <row r="1344">
@@ -54111,7 +54111,7 @@
         </is>
       </c>
       <c r="E1344">
-        <v>0.3967740279309123</v>
+        <v>0.394</v>
       </c>
       <c r="F1344">
         <v>0.09431383000597521</v>
@@ -54126,7 +54126,7 @@
         <v>259990.0341914721</v>
       </c>
       <c r="J1344">
-        <v>99830.99735376915</v>
+        <v>100006</v>
       </c>
     </row>
     <row r="1345">
@@ -55957,7 +55957,7 @@
         <v>0.02921903785810668</v>
       </c>
       <c r="G1390">
-        <v>0.4267194293448976</v>
+        <v>0.427</v>
       </c>
       <c r="H1390">
         <v>630465.4990650264</v>
@@ -55997,7 +55997,7 @@
         <v>0.02817175814943263</v>
       </c>
       <c r="G1391">
-        <v>0.4266037772437354</v>
+        <v>0.427</v>
       </c>
       <c r="H1391">
         <v>633766.0489722001</v>
@@ -56037,7 +56037,7 @@
         <v>0.02739687326523958</v>
       </c>
       <c r="G1392">
-        <v>0.4266951579582063</v>
+        <v>0.427</v>
       </c>
       <c r="H1392">
         <v>636886.2914294421</v>
@@ -56111,10 +56111,10 @@
         </is>
       </c>
       <c r="E1394">
-        <v>0.2787885516792467</v>
+        <v>0.279</v>
       </c>
       <c r="F1394">
-        <v>0.02699165499424554</v>
+        <v>0.027</v>
       </c>
       <c r="G1394">
         <v>0.4275433505003673</v>
@@ -58037,7 +58037,7 @@
         <v>0.1246478292815885</v>
       </c>
       <c r="G1442">
-        <v>0.5126129690931415</v>
+        <v>0.51</v>
       </c>
       <c r="H1442">
         <v>775515.293226795</v>
@@ -58077,7 +58077,7 @@
         <v>0.1239067944219349</v>
       </c>
       <c r="G1443">
-        <v>0.5145876863927423</v>
+        <v>0.51</v>
       </c>
       <c r="H1443">
         <v>792571.2401230743</v>
@@ -58117,7 +58117,7 @@
         <v>0.1228904024653608</v>
       </c>
       <c r="G1444">
-        <v>0.5157692499162773</v>
+        <v>0.51</v>
       </c>
       <c r="H1444">
         <v>807483.58590649</v>
@@ -58157,7 +58157,7 @@
         <v>0.1213666470347402</v>
       </c>
       <c r="G1445">
-        <v>0.5163516628053424</v>
+        <v>0.51</v>
       </c>
       <c r="H1445">
         <v>823318.1678772876</v>
@@ -58197,7 +58197,7 @@
         <v>0.1194793048952905</v>
       </c>
       <c r="G1446">
-        <v>0.5161305812679918</v>
+        <v>0.51</v>
       </c>
       <c r="H1446">
         <v>837837.7776512057</v>
@@ -58237,7 +58237,7 @@
         <v>0.1170875370679927</v>
       </c>
       <c r="G1447">
-        <v>0.5150287111859525</v>
+        <v>0.51</v>
       </c>
       <c r="H1447">
         <v>851873.3492803783</v>
@@ -58277,7 +58277,7 @@
         <v>0.1143312773315572</v>
       </c>
       <c r="G1448">
-        <v>0.5130572615325792</v>
+        <v>0.51</v>
       </c>
       <c r="H1448">
         <v>864388.1842387556</v>
@@ -58317,7 +58317,7 @@
         <v>0.1110117588671661</v>
       </c>
       <c r="G1449">
-        <v>0.5100222469818642</v>
+        <v>0.51</v>
       </c>
       <c r="H1449">
         <v>876079.5649241025</v>
@@ -58560,13 +58560,13 @@
         <v>0.4994944686018495</v>
       </c>
       <c r="H1455">
-        <v>476354.2125772318</v>
+        <v>479391</v>
       </c>
       <c r="I1455">
         <v>243154.9968079837</v>
       </c>
       <c r="J1455">
-        <v>106434.8583029656</v>
+        <v>106531</v>
       </c>
     </row>
     <row r="1456">
@@ -58600,13 +58600,13 @@
         <v>0.4945409586265478</v>
       </c>
       <c r="H1456">
-        <v>474067.6278829794</v>
+        <v>479391</v>
       </c>
       <c r="I1456">
         <v>243579.5319787046</v>
       </c>
       <c r="J1456">
-        <v>106247.6099421637</v>
+        <v>106531</v>
       </c>
     </row>
     <row r="1457">
@@ -58640,13 +58640,13 @@
         <v>0.4905204014958119</v>
       </c>
       <c r="H1457">
-        <v>472616.0164686698</v>
+        <v>479391</v>
       </c>
       <c r="I1457">
         <v>243969.2462287415</v>
       </c>
       <c r="J1457">
-        <v>106113.4715829627</v>
+        <v>106531</v>
       </c>
     </row>
     <row r="1458">
@@ -58680,13 +58680,13 @@
         <v>0.4865481174104882</v>
       </c>
       <c r="H1458">
-        <v>471653.8596345835</v>
+        <v>479391</v>
       </c>
       <c r="I1458">
         <v>244409.3135546221</v>
       </c>
       <c r="J1458">
-        <v>106003.5226993768</v>
+        <v>106531</v>
       </c>
     </row>
     <row r="1459">
@@ -58720,13 +58720,13 @@
         <v>0.4831603931337934</v>
       </c>
       <c r="H1459">
-        <v>471333.9822725179</v>
+        <v>479391</v>
       </c>
       <c r="I1459">
         <v>244845.4340518489</v>
       </c>
       <c r="J1459">
-        <v>105935.5283547732</v>
+        <v>106531</v>
       </c>
     </row>
     <row r="1460">
@@ -58760,13 +58760,13 @@
         <v>0.480106932941728</v>
       </c>
       <c r="H1460">
-        <v>471598.6402926879</v>
+        <v>479391</v>
       </c>
       <c r="I1460">
         <v>245308.4408469998</v>
       </c>
       <c r="J1460">
-        <v>105904.768957519</v>
+        <v>106531</v>
       </c>
     </row>
     <row r="1461">
@@ -58800,13 +58800,13 @@
         <v>0.4775613326152106</v>
       </c>
       <c r="H1461">
-        <v>472395.8979444173</v>
+        <v>479391</v>
       </c>
       <c r="I1461">
         <v>245770.1457404797</v>
       </c>
       <c r="J1461">
-        <v>105913.0503332292</v>
+        <v>106531</v>
       </c>
     </row>
     <row r="1462">
@@ -58840,13 +58840,13 @@
         <v>0.47532943802692</v>
       </c>
       <c r="H1462">
-        <v>473742.4868055074</v>
+        <v>479391</v>
       </c>
       <c r="I1462">
         <v>246263.0874852835</v>
       </c>
       <c r="J1462">
-        <v>105960.7379382919</v>
+        <v>106531</v>
       </c>
     </row>
     <row r="1463">
@@ -58880,13 +58880,13 @@
         <v>0.4734777880599502</v>
       </c>
       <c r="H1463">
-        <v>475583.3854266518</v>
+        <v>479391</v>
       </c>
       <c r="I1463">
         <v>246773.9229535002</v>
       </c>
       <c r="J1463">
-        <v>106048.0075103462</v>
+        <v>106531</v>
       </c>
     </row>
     <row r="1464">
@@ -58920,13 +58920,13 @@
         <v>0.472024253451274</v>
       </c>
       <c r="H1464">
-        <v>477800.304824219</v>
+        <v>479391</v>
       </c>
       <c r="I1464">
         <v>247287.018769581</v>
       </c>
       <c r="J1464">
-        <v>106169.968624763</v>
+        <v>106531</v>
       </c>
     </row>
     <row r="1465">
@@ -58966,7 +58966,7 @@
         <v>247838.3397480276</v>
       </c>
       <c r="J1465">
-        <v>106334.5653871774</v>
+        <v>106531</v>
       </c>
     </row>
     <row r="1466">
@@ -59794,7 +59794,7 @@
         <v>0.3011491780371919</v>
       </c>
       <c r="F1486">
-        <v>0.07080045948422088</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G1486">
         <v>0.4717846215445728</v>
@@ -59834,7 +59834,7 @@
         <v>0.3008111950588052</v>
       </c>
       <c r="F1487">
-        <v>0.07038305128331354</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G1487">
         <v>0.4714181892615249</v>
@@ -59874,7 +59874,7 @@
         <v>0.3008303905553456</v>
       </c>
       <c r="F1488">
-        <v>0.07025465893765653</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G1488">
         <v>0.4710043474153559</v>
@@ -59914,7 +59914,7 @@
         <v>0.3012286490866701</v>
       </c>
       <c r="F1489">
-        <v>0.07045054008648288</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G1489">
         <v>0.4705198210834127</v>
@@ -60477,7 +60477,7 @@
         <v>0.09188218730020212</v>
       </c>
       <c r="G1503">
-        <v>0.4639524905081043</v>
+        <v>0.464</v>
       </c>
       <c r="H1503">
         <v>578604.9524638858</v>
@@ -62394,7 +62394,7 @@
         <v>0.399973142130524</v>
       </c>
       <c r="F1551">
-        <v>0.1544690292779407</v>
+        <v>0.154</v>
       </c>
       <c r="G1551">
         <v>0.4955887151774192</v>
@@ -62877,7 +62877,7 @@
         <v>0.09318512800549933</v>
       </c>
       <c r="G1563">
-        <v>0.512434525277962</v>
+        <v>0.512</v>
       </c>
       <c r="H1563">
         <v>795626.4283097617</v>
@@ -62917,7 +62917,7 @@
         <v>0.08801078532364828</v>
       </c>
       <c r="G1564">
-        <v>0.512517699647161</v>
+        <v>0.512</v>
       </c>
       <c r="H1564">
         <v>814742.2295460947</v>
@@ -62957,7 +62957,7 @@
         <v>0.08397563087499814</v>
       </c>
       <c r="G1565">
-        <v>0.5122633384384603</v>
+        <v>0.512</v>
       </c>
       <c r="H1565">
         <v>830162.5604852103</v>
@@ -63000,7 +63000,7 @@
         <v>0.5115864971723596</v>
       </c>
       <c r="H1566">
-        <v>844920.0341186762</v>
+        <v>842581</v>
       </c>
       <c r="I1566">
         <v>346948.3303089114</v>
@@ -63040,7 +63040,7 @@
         <v>0.5105059295777488</v>
       </c>
       <c r="H1567">
-        <v>856616.2876679448</v>
+        <v>842581</v>
       </c>
       <c r="I1567">
         <v>350213.5022577639</v>
@@ -63080,7 +63080,7 @@
         <v>0.5089174281545659</v>
       </c>
       <c r="H1568">
-        <v>865743.8726318148</v>
+        <v>842581</v>
       </c>
       <c r="I1568">
         <v>353706.4076972574</v>
@@ -63111,7 +63111,7 @@
         </is>
       </c>
       <c r="E1569">
-        <v>0.2866621417027069</v>
+        <v>0.289</v>
       </c>
       <c r="F1569">
         <v>0.07542442243099522</v>
@@ -63120,7 +63120,7 @@
         <v>0.5068926833266949</v>
       </c>
       <c r="H1569">
-        <v>871438.9993231903</v>
+        <v>842581</v>
       </c>
       <c r="I1569">
         <v>357200.8250723834</v>
@@ -63151,7 +63151,7 @@
         </is>
       </c>
       <c r="E1570">
-        <v>0.284398161290758</v>
+        <v>0.289</v>
       </c>
       <c r="F1570">
         <v>0.07609963045303331</v>
@@ -63160,7 +63160,7 @@
         <v>0.5042645424451903</v>
       </c>
       <c r="H1570">
-        <v>873794.1441170105</v>
+        <v>842581</v>
       </c>
       <c r="I1570">
         <v>360928.8037194993</v>
@@ -63191,7 +63191,7 @@
         </is>
       </c>
       <c r="E1571">
-        <v>0.283419083220515</v>
+        <v>0.289</v>
       </c>
       <c r="F1571">
         <v>0.0781380226632015</v>
@@ -63200,7 +63200,7 @@
         <v>0.5010590146517655</v>
       </c>
       <c r="H1571">
-        <v>872269.69665036</v>
+        <v>842581</v>
       </c>
       <c r="I1571">
         <v>364774.8556451684</v>
@@ -63231,7 +63231,7 @@
         </is>
       </c>
       <c r="E1572">
-        <v>0.2837973774457829</v>
+        <v>0.289</v>
       </c>
       <c r="F1572">
         <v>0.08150812442814866</v>
@@ -63240,7 +63240,7 @@
         <v>0.4973760098063094</v>
       </c>
       <c r="H1572">
-        <v>866822.60207337</v>
+        <v>842581</v>
       </c>
       <c r="I1572">
         <v>368608.3804592194</v>
@@ -63271,7 +63271,7 @@
         </is>
       </c>
       <c r="E1573">
-        <v>0.2856640675742117</v>
+        <v>0.289</v>
       </c>
       <c r="F1573">
         <v>0.08653745813276242</v>
@@ -63280,7 +63280,7 @@
         <v>0.4929378245920373</v>
       </c>
       <c r="H1573">
-        <v>856802.5220097555</v>
+        <v>842581</v>
       </c>
       <c r="I1573">
         <v>372684.0346606046</v>
